--- a/os_cleaned.xlsx
+++ b/os_cleaned.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1006" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="518" uniqueCount="259">
   <si>
     <t>ID</t>
   </si>
@@ -785,35 +785,6 @@
   </si>
   <si>
     <t>female</t>
-  </si>
-  <si>
-    <t>suspicious</t>
-  </si>
-  <si>
-    <t>glaucoma</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
-    <t>the eye keeps the lens</t>
-  </si>
-  <si>
-    <t xml:space="preserve">crystalline lens has been removed </t>
-  </si>
-  <si>
-    <t>&lt;bound method Series.mode of 0      1.0
-1      0.0
-2      0.0
-3      0.0
-4      0.0
-      ... 
-482    0.0
-483    0.0
-484    1.0
-485    1.0
-486    1.0
-Name: Phakic/Pseudophakic, Length: 487, dtype: object&gt;</t>
   </si>
   <si>
     <t>Refractive_Defect</t>
@@ -1183,7 +1154,7 @@
         <v>3</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="F1" s="1"/>
       <c r="G1" s="1"/>
@@ -1191,7 +1162,7 @@
         <v>7</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>9</v>
@@ -1245,8 +1216,8 @@
       <c r="C3" t="s">
         <v>256</v>
       </c>
-      <c r="D3" t="s">
-        <v>258</v>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3">
         <v>1.5</v>
@@ -1257,8 +1228,8 @@
       <c r="G3">
         <v>85</v>
       </c>
-      <c r="H3" t="s">
-        <v>261</v>
+      <c r="H3">
+        <v>0</v>
       </c>
       <c r="I3">
         <v>16</v>
@@ -1280,8 +1251,8 @@
       <c r="C4" t="s">
         <v>256</v>
       </c>
-      <c r="D4" t="s">
-        <v>258</v>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4">
         <v>-0.5</v>
@@ -1292,8 +1263,8 @@
       <c r="G4">
         <v>100</v>
       </c>
-      <c r="H4" t="s">
-        <v>261</v>
+      <c r="H4">
+        <v>0</v>
       </c>
       <c r="I4">
         <v>24</v>
@@ -1315,8 +1286,8 @@
       <c r="C5" t="s">
         <v>255</v>
       </c>
-      <c r="D5" t="s">
-        <v>257</v>
+      <c r="D5">
+        <v>1</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -1327,8 +1298,8 @@
       <c r="G5">
         <v>85</v>
       </c>
-      <c r="H5" t="s">
-        <v>260</v>
+      <c r="H5">
+        <v>1</v>
       </c>
       <c r="I5">
         <v>22</v>
@@ -1350,8 +1321,8 @@
       <c r="C6" t="s">
         <v>256</v>
       </c>
-      <c r="D6" t="s">
-        <v>257</v>
+      <c r="D6">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>-0.25</v>
@@ -1362,8 +1333,8 @@
       <c r="G6">
         <v>0</v>
       </c>
-      <c r="H6" t="s">
-        <v>260</v>
+      <c r="H6">
+        <v>1</v>
       </c>
       <c r="I6">
         <v>13</v>
@@ -1385,8 +1356,8 @@
       <c r="C7" t="s">
         <v>256</v>
       </c>
-      <c r="D7" t="s">
-        <v>257</v>
+      <c r="D7">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>0.75</v>
@@ -1397,8 +1368,8 @@
       <c r="G7">
         <v>145</v>
       </c>
-      <c r="H7" t="s">
-        <v>260</v>
+      <c r="H7">
+        <v>1</v>
       </c>
       <c r="I7">
         <v>15</v>
@@ -1420,8 +1391,8 @@
       <c r="C8" t="s">
         <v>255</v>
       </c>
-      <c r="D8" t="s">
-        <v>257</v>
+      <c r="D8">
+        <v>1</v>
       </c>
       <c r="E8">
         <v>0.25</v>
@@ -1432,8 +1403,8 @@
       <c r="G8">
         <v>75</v>
       </c>
-      <c r="H8" t="s">
-        <v>260</v>
+      <c r="H8">
+        <v>1</v>
       </c>
       <c r="I8">
         <v>26</v>
@@ -1455,8 +1426,8 @@
       <c r="C9" t="s">
         <v>256</v>
       </c>
-      <c r="D9" t="s">
-        <v>258</v>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9">
         <v>2.5</v>
@@ -1467,8 +1438,8 @@
       <c r="G9">
         <v>70</v>
       </c>
-      <c r="H9" t="s">
-        <v>260</v>
+      <c r="H9">
+        <v>1</v>
       </c>
       <c r="I9">
         <v>18</v>
@@ -1490,8 +1461,8 @@
       <c r="C10" t="s">
         <v>256</v>
       </c>
-      <c r="D10" t="s">
-        <v>258</v>
+      <c r="D10">
+        <v>0</v>
       </c>
       <c r="E10">
         <v>2.25</v>
@@ -1502,8 +1473,8 @@
       <c r="G10">
         <v>98</v>
       </c>
-      <c r="H10" t="s">
-        <v>260</v>
+      <c r="H10">
+        <v>1</v>
       </c>
       <c r="I10">
         <v>13</v>
@@ -1525,8 +1496,8 @@
       <c r="C11" t="s">
         <v>256</v>
       </c>
-      <c r="D11" t="s">
-        <v>258</v>
+      <c r="D11">
+        <v>0</v>
       </c>
       <c r="E11">
         <v>0.25</v>
@@ -1537,8 +1508,8 @@
       <c r="G11">
         <v>160</v>
       </c>
-      <c r="H11" t="s">
-        <v>260</v>
+      <c r="H11">
+        <v>1</v>
       </c>
       <c r="I11">
         <v>24</v>
@@ -1560,8 +1531,8 @@
       <c r="C12" t="s">
         <v>256</v>
       </c>
-      <c r="D12" t="s">
-        <v>258</v>
+      <c r="D12">
+        <v>0</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -1572,8 +1543,8 @@
       <c r="G12">
         <v>90</v>
       </c>
-      <c r="H12" t="s">
-        <v>261</v>
+      <c r="H12">
+        <v>0</v>
       </c>
       <c r="I12">
         <v>17</v>
@@ -1595,8 +1566,8 @@
       <c r="C13" t="s">
         <v>255</v>
       </c>
-      <c r="D13" t="s">
-        <v>258</v>
+      <c r="D13">
+        <v>0</v>
       </c>
       <c r="E13">
         <v>1.5</v>
@@ -1607,8 +1578,8 @@
       <c r="G13">
         <v>5</v>
       </c>
-      <c r="H13" t="s">
-        <v>260</v>
+      <c r="H13">
+        <v>1</v>
       </c>
       <c r="I13">
         <v>19</v>
@@ -1630,8 +1601,8 @@
       <c r="C14" t="s">
         <v>255</v>
       </c>
-      <c r="D14" t="s">
-        <v>257</v>
+      <c r="D14">
+        <v>1</v>
       </c>
       <c r="E14">
         <v>-3</v>
@@ -1642,8 +1613,8 @@
       <c r="G14">
         <v>175</v>
       </c>
-      <c r="H14" t="s">
-        <v>260</v>
+      <c r="H14">
+        <v>1</v>
       </c>
       <c r="I14">
         <v>17</v>
@@ -1665,8 +1636,8 @@
       <c r="C15" t="s">
         <v>256</v>
       </c>
-      <c r="D15" t="s">
-        <v>258</v>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15">
         <v>1.25</v>
@@ -1677,8 +1648,8 @@
       <c r="G15">
         <v>100</v>
       </c>
-      <c r="H15" t="s">
-        <v>261</v>
+      <c r="H15">
+        <v>0</v>
       </c>
       <c r="I15">
         <v>16</v>
@@ -1700,8 +1671,8 @@
       <c r="C16" t="s">
         <v>256</v>
       </c>
-      <c r="D16" t="s">
-        <v>258</v>
+      <c r="D16">
+        <v>0</v>
       </c>
       <c r="E16">
         <v>0.5</v>
@@ -1712,8 +1683,8 @@
       <c r="G16">
         <v>110</v>
       </c>
-      <c r="H16" t="s">
-        <v>261</v>
+      <c r="H16">
+        <v>0</v>
       </c>
       <c r="I16">
         <v>16</v>
@@ -1735,8 +1706,8 @@
       <c r="C17" t="s">
         <v>255</v>
       </c>
-      <c r="D17" t="s">
-        <v>258</v>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17">
         <v>0.75</v>
@@ -1747,8 +1718,8 @@
       <c r="G17">
         <v>80</v>
       </c>
-      <c r="H17" t="s">
-        <v>261</v>
+      <c r="H17">
+        <v>0</v>
       </c>
       <c r="I17">
         <v>12</v>
@@ -1770,8 +1741,8 @@
       <c r="C18" t="s">
         <v>256</v>
       </c>
-      <c r="D18" t="s">
-        <v>258</v>
+      <c r="D18">
+        <v>0</v>
       </c>
       <c r="E18">
         <v>-0.5</v>
@@ -1782,8 +1753,8 @@
       <c r="G18">
         <v>85</v>
       </c>
-      <c r="H18" t="s">
-        <v>261</v>
+      <c r="H18">
+        <v>0</v>
       </c>
       <c r="I18">
         <v>16</v>
@@ -1805,8 +1776,8 @@
       <c r="C19" t="s">
         <v>255</v>
       </c>
-      <c r="D19" t="s">
-        <v>257</v>
+      <c r="D19">
+        <v>1</v>
       </c>
       <c r="E19">
         <v>0.75</v>
@@ -1817,8 +1788,8 @@
       <c r="G19">
         <v>90</v>
       </c>
-      <c r="H19" t="s">
-        <v>261</v>
+      <c r="H19">
+        <v>0</v>
       </c>
       <c r="I19">
         <v>22</v>
@@ -1840,8 +1811,8 @@
       <c r="C20" t="s">
         <v>256</v>
       </c>
-      <c r="D20" t="s">
-        <v>258</v>
+      <c r="D20">
+        <v>0</v>
       </c>
       <c r="E20">
         <v>3.25</v>
@@ -1852,8 +1823,8 @@
       <c r="G20">
         <v>70</v>
       </c>
-      <c r="H20" t="s">
-        <v>261</v>
+      <c r="H20">
+        <v>0</v>
       </c>
       <c r="I20">
         <v>22</v>
@@ -1875,8 +1846,8 @@
       <c r="C21" t="s">
         <v>255</v>
       </c>
-      <c r="D21" t="s">
-        <v>258</v>
+      <c r="D21">
+        <v>0</v>
       </c>
       <c r="E21">
         <v>1</v>
@@ -1887,8 +1858,8 @@
       <c r="G21">
         <v>75</v>
       </c>
-      <c r="H21" t="s">
-        <v>261</v>
+      <c r="H21">
+        <v>0</v>
       </c>
       <c r="I21">
         <v>17</v>
@@ -1910,8 +1881,8 @@
       <c r="C22" t="s">
         <v>256</v>
       </c>
-      <c r="D22" t="s">
-        <v>258</v>
+      <c r="D22">
+        <v>0</v>
       </c>
       <c r="E22">
         <v>-0.5</v>
@@ -1922,8 +1893,8 @@
       <c r="G22">
         <v>92</v>
       </c>
-      <c r="H22" t="s">
-        <v>261</v>
+      <c r="H22">
+        <v>0</v>
       </c>
       <c r="I22">
         <v>16</v>
@@ -1945,8 +1916,8 @@
       <c r="C23" t="s">
         <v>255</v>
       </c>
-      <c r="D23" t="s">
-        <v>259</v>
+      <c r="D23">
+        <v>2</v>
       </c>
       <c r="E23">
         <v>-1.5</v>
@@ -1957,8 +1928,8 @@
       <c r="G23">
         <v>5</v>
       </c>
-      <c r="H23" t="s">
-        <v>261</v>
+      <c r="H23">
+        <v>0</v>
       </c>
       <c r="I23">
         <v>18</v>
@@ -1980,8 +1951,8 @@
       <c r="C24" t="s">
         <v>256</v>
       </c>
-      <c r="D24" t="s">
-        <v>259</v>
+      <c r="D24">
+        <v>2</v>
       </c>
       <c r="E24">
         <v>-1.25</v>
@@ -1992,8 +1963,8 @@
       <c r="G24">
         <v>0</v>
       </c>
-      <c r="H24" t="s">
-        <v>261</v>
+      <c r="H24">
+        <v>0</v>
       </c>
       <c r="I24">
         <v>16</v>
@@ -2015,8 +1986,8 @@
       <c r="C25" t="s">
         <v>256</v>
       </c>
-      <c r="D25" t="s">
-        <v>259</v>
+      <c r="D25">
+        <v>2</v>
       </c>
       <c r="E25">
         <v>-0.25</v>
@@ -2027,8 +1998,8 @@
       <c r="G25">
         <v>55</v>
       </c>
-      <c r="H25" t="s">
-        <v>261</v>
+      <c r="H25">
+        <v>0</v>
       </c>
       <c r="I25">
         <v>15</v>
@@ -2050,8 +2021,8 @@
       <c r="C26" t="s">
         <v>256</v>
       </c>
-      <c r="D26" t="s">
-        <v>259</v>
+      <c r="D26">
+        <v>2</v>
       </c>
       <c r="E26">
         <v>-1.75</v>
@@ -2062,8 +2033,8 @@
       <c r="G26">
         <v>165</v>
       </c>
-      <c r="H26" t="s">
-        <v>261</v>
+      <c r="H26">
+        <v>0</v>
       </c>
       <c r="I26">
         <v>15</v>
@@ -2085,8 +2056,8 @@
       <c r="C27" t="s">
         <v>255</v>
       </c>
-      <c r="D27" t="s">
-        <v>259</v>
+      <c r="D27">
+        <v>2</v>
       </c>
       <c r="E27">
         <v>0.25</v>
@@ -2097,8 +2068,8 @@
       <c r="G27">
         <v>165</v>
       </c>
-      <c r="H27" t="s">
-        <v>261</v>
+      <c r="H27">
+        <v>0</v>
       </c>
       <c r="I27">
         <v>12</v>
@@ -2120,8 +2091,8 @@
       <c r="C28" t="s">
         <v>256</v>
       </c>
-      <c r="D28" t="s">
-        <v>259</v>
+      <c r="D28">
+        <v>2</v>
       </c>
       <c r="E28">
         <v>-2</v>
@@ -2132,8 +2103,8 @@
       <c r="G28">
         <v>140</v>
       </c>
-      <c r="H28" t="s">
-        <v>261</v>
+      <c r="H28">
+        <v>0</v>
       </c>
       <c r="I28">
         <v>9</v>
@@ -2155,8 +2126,8 @@
       <c r="C29" t="s">
         <v>256</v>
       </c>
-      <c r="D29" t="s">
-        <v>259</v>
+      <c r="D29">
+        <v>2</v>
       </c>
       <c r="E29">
         <v>0.25</v>
@@ -2167,8 +2138,8 @@
       <c r="G29">
         <v>110</v>
       </c>
-      <c r="H29" t="s">
-        <v>261</v>
+      <c r="H29">
+        <v>0</v>
       </c>
       <c r="I29">
         <v>16</v>
@@ -2190,8 +2161,8 @@
       <c r="C30" t="s">
         <v>256</v>
       </c>
-      <c r="D30" t="s">
-        <v>259</v>
+      <c r="D30">
+        <v>2</v>
       </c>
       <c r="E30">
         <v>0.75</v>
@@ -2202,8 +2173,8 @@
       <c r="G30">
         <v>175</v>
       </c>
-      <c r="H30" t="s">
-        <v>261</v>
+      <c r="H30">
+        <v>0</v>
       </c>
       <c r="I30">
         <v>21</v>
@@ -2225,8 +2196,8 @@
       <c r="C31" t="s">
         <v>255</v>
       </c>
-      <c r="D31" t="s">
-        <v>259</v>
+      <c r="D31">
+        <v>2</v>
       </c>
       <c r="E31">
         <v>1.75</v>
@@ -2237,8 +2208,8 @@
       <c r="G31">
         <v>110</v>
       </c>
-      <c r="H31" t="s">
-        <v>261</v>
+      <c r="H31">
+        <v>0</v>
       </c>
       <c r="I31">
         <v>12</v>
@@ -2260,8 +2231,8 @@
       <c r="C32" t="s">
         <v>255</v>
       </c>
-      <c r="D32" t="s">
-        <v>259</v>
+      <c r="D32">
+        <v>2</v>
       </c>
       <c r="E32">
         <v>-0.75</v>
@@ -2272,8 +2243,8 @@
       <c r="G32">
         <v>85</v>
       </c>
-      <c r="H32" t="s">
-        <v>261</v>
+      <c r="H32">
+        <v>0</v>
       </c>
       <c r="I32">
         <v>14</v>
@@ -2295,8 +2266,8 @@
       <c r="C33" t="s">
         <v>256</v>
       </c>
-      <c r="D33" t="s">
-        <v>259</v>
+      <c r="D33">
+        <v>2</v>
       </c>
       <c r="E33">
         <v>0.75</v>
@@ -2307,8 +2278,8 @@
       <c r="G33">
         <v>95</v>
       </c>
-      <c r="H33" t="s">
-        <v>262</v>
+      <c r="H33">
+        <v>1</v>
       </c>
       <c r="I33">
         <v>19</v>
@@ -2330,8 +2301,8 @@
       <c r="C34" t="s">
         <v>255</v>
       </c>
-      <c r="D34" t="s">
-        <v>259</v>
+      <c r="D34">
+        <v>2</v>
       </c>
       <c r="E34">
         <v>-1.75</v>
@@ -2342,8 +2313,8 @@
       <c r="G34">
         <v>35</v>
       </c>
-      <c r="H34" t="s">
-        <v>261</v>
+      <c r="H34">
+        <v>0</v>
       </c>
       <c r="I34">
         <v>14</v>
@@ -2365,8 +2336,8 @@
       <c r="C35" t="s">
         <v>256</v>
       </c>
-      <c r="D35" t="s">
-        <v>257</v>
+      <c r="D35">
+        <v>1</v>
       </c>
       <c r="E35">
         <v>1.75</v>
@@ -2377,8 +2348,8 @@
       <c r="G35">
         <v>20</v>
       </c>
-      <c r="H35" t="s">
-        <v>261</v>
+      <c r="H35">
+        <v>0</v>
       </c>
       <c r="I35">
         <v>16</v>
@@ -2400,8 +2371,8 @@
       <c r="C36" t="s">
         <v>255</v>
       </c>
-      <c r="D36" t="s">
-        <v>258</v>
+      <c r="D36">
+        <v>0</v>
       </c>
       <c r="E36">
         <v>0.25</v>
@@ -2412,8 +2383,8 @@
       <c r="G36">
         <v>85</v>
       </c>
-      <c r="H36" t="s">
-        <v>261</v>
+      <c r="H36">
+        <v>0</v>
       </c>
       <c r="I36">
         <v>16</v>
@@ -2435,8 +2406,8 @@
       <c r="C37" t="s">
         <v>255</v>
       </c>
-      <c r="D37" t="s">
-        <v>258</v>
+      <c r="D37">
+        <v>0</v>
       </c>
       <c r="E37">
         <v>1</v>
@@ -2447,8 +2418,8 @@
       <c r="G37">
         <v>125</v>
       </c>
-      <c r="H37" t="s">
-        <v>261</v>
+      <c r="H37">
+        <v>0</v>
       </c>
       <c r="I37">
         <v>16</v>
@@ -2470,8 +2441,8 @@
       <c r="C38" t="s">
         <v>255</v>
       </c>
-      <c r="D38" t="s">
-        <v>258</v>
+      <c r="D38">
+        <v>0</v>
       </c>
       <c r="E38">
         <v>-0.25</v>
@@ -2482,8 +2453,8 @@
       <c r="G38">
         <v>120</v>
       </c>
-      <c r="H38" t="s">
-        <v>261</v>
+      <c r="H38">
+        <v>0</v>
       </c>
       <c r="I38">
         <v>10</v>
@@ -2505,8 +2476,8 @@
       <c r="C39" t="s">
         <v>255</v>
       </c>
-      <c r="D39" t="s">
-        <v>257</v>
+      <c r="D39">
+        <v>1</v>
       </c>
       <c r="E39">
         <v>4.5</v>
@@ -2517,8 +2488,8 @@
       <c r="G39">
         <v>65</v>
       </c>
-      <c r="H39" t="s">
-        <v>261</v>
+      <c r="H39">
+        <v>0</v>
       </c>
       <c r="I39">
         <v>16</v>
@@ -2540,8 +2511,8 @@
       <c r="C40" t="s">
         <v>256</v>
       </c>
-      <c r="D40" t="s">
-        <v>258</v>
+      <c r="D40">
+        <v>0</v>
       </c>
       <c r="E40">
         <v>0.75</v>
@@ -2552,8 +2523,8 @@
       <c r="G40">
         <v>130</v>
       </c>
-      <c r="H40" t="s">
-        <v>261</v>
+      <c r="H40">
+        <v>0</v>
       </c>
       <c r="I40">
         <v>15</v>
@@ -2575,8 +2546,8 @@
       <c r="C41" t="s">
         <v>256</v>
       </c>
-      <c r="D41" t="s">
-        <v>258</v>
+      <c r="D41">
+        <v>0</v>
       </c>
       <c r="E41">
         <v>-0.25</v>
@@ -2587,8 +2558,8 @@
       <c r="G41">
         <v>177</v>
       </c>
-      <c r="H41" t="s">
-        <v>261</v>
+      <c r="H41">
+        <v>0</v>
       </c>
       <c r="I41">
         <v>16</v>
@@ -2610,8 +2581,8 @@
       <c r="C42" t="s">
         <v>256</v>
       </c>
-      <c r="D42" t="s">
-        <v>258</v>
+      <c r="D42">
+        <v>0</v>
       </c>
       <c r="E42">
         <v>2.75</v>
@@ -2622,8 +2593,8 @@
       <c r="G42">
         <v>94</v>
       </c>
-      <c r="H42" t="s">
-        <v>261</v>
+      <c r="H42">
+        <v>0</v>
       </c>
       <c r="I42">
         <v>18</v>
@@ -2645,8 +2616,8 @@
       <c r="C43" t="s">
         <v>256</v>
       </c>
-      <c r="D43" t="s">
-        <v>258</v>
+      <c r="D43">
+        <v>0</v>
       </c>
       <c r="E43">
         <v>1</v>
@@ -2657,8 +2628,8 @@
       <c r="G43">
         <v>75</v>
       </c>
-      <c r="H43" t="s">
-        <v>261</v>
+      <c r="H43">
+        <v>0</v>
       </c>
       <c r="I43">
         <v>10</v>
@@ -2680,8 +2651,8 @@
       <c r="C44" t="s">
         <v>256</v>
       </c>
-      <c r="D44" t="s">
-        <v>257</v>
+      <c r="D44">
+        <v>1</v>
       </c>
       <c r="E44">
         <v>1.5</v>
@@ -2692,8 +2663,8 @@
       <c r="G44">
         <v>92.37656903765691</v>
       </c>
-      <c r="H44" t="s">
-        <v>261</v>
+      <c r="H44">
+        <v>0</v>
       </c>
       <c r="I44">
         <v>16</v>
@@ -2715,8 +2686,8 @@
       <c r="C45" t="s">
         <v>256</v>
       </c>
-      <c r="D45" t="s">
-        <v>258</v>
+      <c r="D45">
+        <v>0</v>
       </c>
       <c r="E45">
         <v>5</v>
@@ -2727,8 +2698,8 @@
       <c r="G45">
         <v>90</v>
       </c>
-      <c r="H45" t="s">
-        <v>261</v>
+      <c r="H45">
+        <v>0</v>
       </c>
       <c r="I45">
         <v>16</v>
@@ -2750,8 +2721,8 @@
       <c r="C46" t="s">
         <v>255</v>
       </c>
-      <c r="D46" t="s">
-        <v>258</v>
+      <c r="D46">
+        <v>0</v>
       </c>
       <c r="E46">
         <v>0.75</v>
@@ -2762,8 +2733,8 @@
       <c r="G46">
         <v>80</v>
       </c>
-      <c r="H46" t="s">
-        <v>261</v>
+      <c r="H46">
+        <v>0</v>
       </c>
       <c r="I46">
         <v>16</v>
@@ -2785,8 +2756,8 @@
       <c r="C47" t="s">
         <v>255</v>
       </c>
-      <c r="D47" t="s">
-        <v>258</v>
+      <c r="D47">
+        <v>0</v>
       </c>
       <c r="E47">
         <v>-1</v>
@@ -2797,8 +2768,8 @@
       <c r="G47">
         <v>78</v>
       </c>
-      <c r="H47" t="s">
-        <v>261</v>
+      <c r="H47">
+        <v>0</v>
       </c>
       <c r="I47">
         <v>16</v>
@@ -2820,8 +2791,8 @@
       <c r="C48" t="s">
         <v>255</v>
       </c>
-      <c r="D48" t="s">
-        <v>258</v>
+      <c r="D48">
+        <v>0</v>
       </c>
       <c r="E48">
         <v>4.5</v>
@@ -2832,8 +2803,8 @@
       <c r="G48">
         <v>100</v>
       </c>
-      <c r="H48" t="s">
-        <v>261</v>
+      <c r="H48">
+        <v>0</v>
       </c>
       <c r="I48">
         <v>16</v>
@@ -2855,8 +2826,8 @@
       <c r="C49" t="s">
         <v>256</v>
       </c>
-      <c r="D49" t="s">
-        <v>258</v>
+      <c r="D49">
+        <v>0</v>
       </c>
       <c r="E49">
         <v>-0.25</v>
@@ -2867,8 +2838,8 @@
       <c r="G49">
         <v>75</v>
       </c>
-      <c r="H49" t="s">
-        <v>261</v>
+      <c r="H49">
+        <v>0</v>
       </c>
       <c r="I49">
         <v>16</v>
@@ -2890,8 +2861,8 @@
       <c r="C50" t="s">
         <v>256</v>
       </c>
-      <c r="D50" t="s">
-        <v>258</v>
+      <c r="D50">
+        <v>0</v>
       </c>
       <c r="E50">
         <v>0.5</v>
@@ -2902,8 +2873,8 @@
       <c r="G50">
         <v>175</v>
       </c>
-      <c r="H50" t="s">
-        <v>261</v>
+      <c r="H50">
+        <v>0</v>
       </c>
       <c r="I50">
         <v>16</v>
@@ -2925,8 +2896,8 @@
       <c r="C51" t="s">
         <v>256</v>
       </c>
-      <c r="D51" t="s">
-        <v>257</v>
+      <c r="D51">
+        <v>1</v>
       </c>
       <c r="E51">
         <v>1.5</v>
@@ -2937,8 +2908,8 @@
       <c r="G51">
         <v>44</v>
       </c>
-      <c r="H51" t="s">
-        <v>261</v>
+      <c r="H51">
+        <v>0</v>
       </c>
       <c r="I51">
         <v>16</v>
@@ -2960,8 +2931,8 @@
       <c r="C52" t="s">
         <v>255</v>
       </c>
-      <c r="D52" t="s">
-        <v>257</v>
+      <c r="D52">
+        <v>1</v>
       </c>
       <c r="E52">
         <v>0.5</v>
@@ -2972,8 +2943,8 @@
       <c r="G52">
         <v>120</v>
       </c>
-      <c r="H52" t="s">
-        <v>261</v>
+      <c r="H52">
+        <v>0</v>
       </c>
       <c r="I52">
         <v>23</v>
@@ -2995,8 +2966,8 @@
       <c r="C53" t="s">
         <v>256</v>
       </c>
-      <c r="D53" t="s">
-        <v>258</v>
+      <c r="D53">
+        <v>0</v>
       </c>
       <c r="E53">
         <v>1.25</v>
@@ -3007,8 +2978,8 @@
       <c r="G53">
         <v>60</v>
       </c>
-      <c r="H53" t="s">
-        <v>261</v>
+      <c r="H53">
+        <v>0</v>
       </c>
       <c r="I53">
         <v>16</v>
@@ -3030,8 +3001,8 @@
       <c r="C54" t="s">
         <v>256</v>
       </c>
-      <c r="D54" t="s">
-        <v>258</v>
+      <c r="D54">
+        <v>0</v>
       </c>
       <c r="E54">
         <v>0.75</v>
@@ -3042,8 +3013,8 @@
       <c r="G54">
         <v>46</v>
       </c>
-      <c r="H54" t="s">
-        <v>261</v>
+      <c r="H54">
+        <v>0</v>
       </c>
       <c r="I54">
         <v>16</v>
@@ -3065,8 +3036,8 @@
       <c r="C55" t="s">
         <v>255</v>
       </c>
-      <c r="D55" t="s">
-        <v>257</v>
+      <c r="D55">
+        <v>1</v>
       </c>
       <c r="E55">
         <v>0.75</v>
@@ -3077,8 +3048,8 @@
       <c r="G55">
         <v>92.37656903765691</v>
       </c>
-      <c r="H55" t="s">
-        <v>261</v>
+      <c r="H55">
+        <v>0</v>
       </c>
       <c r="I55">
         <v>22</v>
@@ -3100,8 +3071,8 @@
       <c r="C56" t="s">
         <v>256</v>
       </c>
-      <c r="D56" t="s">
-        <v>257</v>
+      <c r="D56">
+        <v>1</v>
       </c>
       <c r="E56">
         <v>0.5</v>
@@ -3112,8 +3083,8 @@
       <c r="G56">
         <v>75</v>
       </c>
-      <c r="H56" t="s">
-        <v>261</v>
+      <c r="H56">
+        <v>0</v>
       </c>
       <c r="I56">
         <v>15</v>
@@ -3135,8 +3106,8 @@
       <c r="C57" t="s">
         <v>255</v>
       </c>
-      <c r="D57" t="s">
-        <v>258</v>
+      <c r="D57">
+        <v>0</v>
       </c>
       <c r="E57">
         <v>-1.25</v>
@@ -3147,8 +3118,8 @@
       <c r="G57">
         <v>170</v>
       </c>
-      <c r="H57" t="s">
-        <v>261</v>
+      <c r="H57">
+        <v>0</v>
       </c>
       <c r="I57">
         <v>16</v>
@@ -3170,8 +3141,8 @@
       <c r="C58" t="s">
         <v>255</v>
       </c>
-      <c r="D58" t="s">
-        <v>258</v>
+      <c r="D58">
+        <v>0</v>
       </c>
       <c r="E58">
         <v>0.75</v>
@@ -3182,8 +3153,8 @@
       <c r="G58">
         <v>75</v>
       </c>
-      <c r="H58" t="s">
-        <v>260</v>
+      <c r="H58">
+        <v>1</v>
       </c>
       <c r="I58">
         <v>18</v>
@@ -3205,8 +3176,8 @@
       <c r="C59" t="s">
         <v>256</v>
       </c>
-      <c r="D59" t="s">
-        <v>257</v>
+      <c r="D59">
+        <v>1</v>
       </c>
       <c r="E59">
         <v>0.25</v>
@@ -3217,8 +3188,8 @@
       <c r="G59">
         <v>0</v>
       </c>
-      <c r="H59" t="s">
-        <v>261</v>
+      <c r="H59">
+        <v>0</v>
       </c>
       <c r="I59">
         <v>18</v>
@@ -3240,8 +3211,8 @@
       <c r="C60" t="s">
         <v>256</v>
       </c>
-      <c r="D60" t="s">
-        <v>258</v>
+      <c r="D60">
+        <v>0</v>
       </c>
       <c r="E60">
         <v>0.75</v>
@@ -3252,8 +3223,8 @@
       <c r="G60">
         <v>165</v>
       </c>
-      <c r="H60" t="s">
-        <v>260</v>
+      <c r="H60">
+        <v>1</v>
       </c>
       <c r="I60">
         <v>10</v>
@@ -3275,8 +3246,8 @@
       <c r="C61" t="s">
         <v>255</v>
       </c>
-      <c r="D61" t="s">
-        <v>258</v>
+      <c r="D61">
+        <v>0</v>
       </c>
       <c r="E61">
         <v>2.75</v>
@@ -3287,8 +3258,8 @@
       <c r="G61">
         <v>103</v>
       </c>
-      <c r="H61" t="s">
-        <v>260</v>
+      <c r="H61">
+        <v>1</v>
       </c>
       <c r="I61">
         <v>16</v>
@@ -3310,8 +3281,8 @@
       <c r="C62" t="s">
         <v>256</v>
       </c>
-      <c r="D62" t="s">
-        <v>258</v>
+      <c r="D62">
+        <v>0</v>
       </c>
       <c r="E62">
         <v>-3</v>
@@ -3322,8 +3293,8 @@
       <c r="G62">
         <v>86</v>
       </c>
-      <c r="H62" t="s">
-        <v>260</v>
+      <c r="H62">
+        <v>1</v>
       </c>
       <c r="I62">
         <v>16</v>
@@ -3345,8 +3316,8 @@
       <c r="C63" t="s">
         <v>256</v>
       </c>
-      <c r="D63" t="s">
-        <v>258</v>
+      <c r="D63">
+        <v>0</v>
       </c>
       <c r="E63">
         <v>-4</v>
@@ -3357,8 +3328,8 @@
       <c r="G63">
         <v>170</v>
       </c>
-      <c r="H63" t="s">
-        <v>261</v>
+      <c r="H63">
+        <v>0</v>
       </c>
       <c r="I63">
         <v>16</v>
@@ -3380,8 +3351,8 @@
       <c r="C64" t="s">
         <v>256</v>
       </c>
-      <c r="D64" t="s">
-        <v>257</v>
+      <c r="D64">
+        <v>1</v>
       </c>
       <c r="E64">
         <v>-2.25</v>
@@ -3392,8 +3363,8 @@
       <c r="G64">
         <v>145</v>
       </c>
-      <c r="H64" t="s">
-        <v>261</v>
+      <c r="H64">
+        <v>0</v>
       </c>
       <c r="I64">
         <v>16</v>
@@ -3415,8 +3386,8 @@
       <c r="C65" t="s">
         <v>255</v>
       </c>
-      <c r="D65" t="s">
-        <v>258</v>
+      <c r="D65">
+        <v>0</v>
       </c>
       <c r="E65">
         <v>2.25</v>
@@ -3427,8 +3398,8 @@
       <c r="G65">
         <v>90</v>
       </c>
-      <c r="H65" t="s">
-        <v>261</v>
+      <c r="H65">
+        <v>0</v>
       </c>
       <c r="I65">
         <v>16</v>
@@ -3450,8 +3421,8 @@
       <c r="C66" t="s">
         <v>255</v>
       </c>
-      <c r="D66" t="s">
-        <v>257</v>
+      <c r="D66">
+        <v>1</v>
       </c>
       <c r="E66">
         <v>0.25</v>
@@ -3462,8 +3433,8 @@
       <c r="G66">
         <v>25</v>
       </c>
-      <c r="H66" t="s">
-        <v>261</v>
+      <c r="H66">
+        <v>0</v>
       </c>
       <c r="I66">
         <v>14</v>
@@ -3485,8 +3456,8 @@
       <c r="C67" t="s">
         <v>256</v>
       </c>
-      <c r="D67" t="s">
-        <v>257</v>
+      <c r="D67">
+        <v>1</v>
       </c>
       <c r="E67">
         <v>1.75</v>
@@ -3497,8 +3468,8 @@
       <c r="G67">
         <v>100</v>
       </c>
-      <c r="H67" t="s">
-        <v>261</v>
+      <c r="H67">
+        <v>0</v>
       </c>
       <c r="I67">
         <v>16</v>
@@ -3520,8 +3491,8 @@
       <c r="C68" t="s">
         <v>255</v>
       </c>
-      <c r="D68" t="s">
-        <v>257</v>
+      <c r="D68">
+        <v>1</v>
       </c>
       <c r="E68">
         <v>-0.25</v>
@@ -3532,8 +3503,8 @@
       <c r="G68">
         <v>90</v>
       </c>
-      <c r="H68" t="s">
-        <v>261</v>
+      <c r="H68">
+        <v>0</v>
       </c>
       <c r="I68">
         <v>16</v>
@@ -3555,8 +3526,8 @@
       <c r="C69" t="s">
         <v>255</v>
       </c>
-      <c r="D69" t="s">
-        <v>258</v>
+      <c r="D69">
+        <v>0</v>
       </c>
       <c r="E69">
         <v>1</v>
@@ -3567,8 +3538,8 @@
       <c r="G69">
         <v>30</v>
       </c>
-      <c r="H69" t="s">
-        <v>261</v>
+      <c r="H69">
+        <v>0</v>
       </c>
       <c r="I69">
         <v>17</v>
@@ -3590,8 +3561,8 @@
       <c r="C70" t="s">
         <v>256</v>
       </c>
-      <c r="D70" t="s">
-        <v>258</v>
+      <c r="D70">
+        <v>0</v>
       </c>
       <c r="E70">
         <v>0.75</v>
@@ -3602,8 +3573,8 @@
       <c r="G70">
         <v>40</v>
       </c>
-      <c r="H70" t="s">
-        <v>261</v>
+      <c r="H70">
+        <v>0</v>
       </c>
       <c r="I70">
         <v>16</v>
@@ -3625,8 +3596,8 @@
       <c r="C71" t="s">
         <v>255</v>
       </c>
-      <c r="D71" t="s">
-        <v>257</v>
+      <c r="D71">
+        <v>1</v>
       </c>
       <c r="E71">
         <v>-0.25</v>
@@ -3637,8 +3608,8 @@
       <c r="G71">
         <v>175</v>
       </c>
-      <c r="H71" t="s">
-        <v>261</v>
+      <c r="H71">
+        <v>0</v>
       </c>
       <c r="I71">
         <v>16</v>
@@ -3660,8 +3631,8 @@
       <c r="C72" t="s">
         <v>256</v>
       </c>
-      <c r="D72" t="s">
-        <v>257</v>
+      <c r="D72">
+        <v>1</v>
       </c>
       <c r="E72">
         <v>0.5</v>
@@ -3672,8 +3643,8 @@
       <c r="G72">
         <v>126</v>
       </c>
-      <c r="H72" t="s">
-        <v>261</v>
+      <c r="H72">
+        <v>0</v>
       </c>
       <c r="I72">
         <v>22</v>
@@ -3695,8 +3666,8 @@
       <c r="C73" t="s">
         <v>255</v>
       </c>
-      <c r="D73" t="s">
-        <v>257</v>
+      <c r="D73">
+        <v>1</v>
       </c>
       <c r="E73">
         <v>1</v>
@@ -3707,8 +3678,8 @@
       <c r="G73">
         <v>175</v>
       </c>
-      <c r="H73" t="s">
-        <v>261</v>
+      <c r="H73">
+        <v>0</v>
       </c>
       <c r="I73">
         <v>16</v>
@@ -3730,8 +3701,8 @@
       <c r="C74" t="s">
         <v>255</v>
       </c>
-      <c r="D74" t="s">
-        <v>258</v>
+      <c r="D74">
+        <v>0</v>
       </c>
       <c r="E74">
         <v>1</v>
@@ -3742,8 +3713,8 @@
       <c r="G74">
         <v>80</v>
       </c>
-      <c r="H74" t="s">
-        <v>261</v>
+      <c r="H74">
+        <v>0</v>
       </c>
       <c r="I74">
         <v>16</v>
@@ -3765,8 +3736,8 @@
       <c r="C75" t="s">
         <v>255</v>
       </c>
-      <c r="D75" t="s">
-        <v>257</v>
+      <c r="D75">
+        <v>1</v>
       </c>
       <c r="E75">
         <v>-1.25</v>
@@ -3777,8 +3748,8 @@
       <c r="G75">
         <v>125</v>
       </c>
-      <c r="H75" t="s">
-        <v>261</v>
+      <c r="H75">
+        <v>0</v>
       </c>
       <c r="I75">
         <v>16</v>
@@ -3800,8 +3771,8 @@
       <c r="C76" t="s">
         <v>256</v>
       </c>
-      <c r="D76" t="s">
-        <v>258</v>
+      <c r="D76">
+        <v>0</v>
       </c>
       <c r="E76">
         <v>1.25</v>
@@ -3812,8 +3783,8 @@
       <c r="G76">
         <v>93</v>
       </c>
-      <c r="H76" t="s">
-        <v>261</v>
+      <c r="H76">
+        <v>0</v>
       </c>
       <c r="I76">
         <v>16</v>
@@ -3835,8 +3806,8 @@
       <c r="C77" t="s">
         <v>256</v>
       </c>
-      <c r="D77" t="s">
-        <v>259</v>
+      <c r="D77">
+        <v>2</v>
       </c>
       <c r="E77">
         <v>5.5</v>
@@ -3847,8 +3818,8 @@
       <c r="G77">
         <v>68</v>
       </c>
-      <c r="H77" t="s">
-        <v>261</v>
+      <c r="H77">
+        <v>0</v>
       </c>
       <c r="I77">
         <v>16</v>
@@ -3870,8 +3841,8 @@
       <c r="C78" t="s">
         <v>255</v>
       </c>
-      <c r="D78" t="s">
-        <v>257</v>
+      <c r="D78">
+        <v>1</v>
       </c>
       <c r="E78">
         <v>-3.75</v>
@@ -3882,8 +3853,8 @@
       <c r="G78">
         <v>78</v>
       </c>
-      <c r="H78" t="s">
-        <v>261</v>
+      <c r="H78">
+        <v>0</v>
       </c>
       <c r="I78">
         <v>15</v>
@@ -3905,8 +3876,8 @@
       <c r="C79" t="s">
         <v>255</v>
       </c>
-      <c r="D79" t="s">
-        <v>257</v>
+      <c r="D79">
+        <v>1</v>
       </c>
       <c r="E79">
         <v>1.25</v>
@@ -3917,8 +3888,8 @@
       <c r="G79">
         <v>64</v>
       </c>
-      <c r="H79" t="s">
-        <v>261</v>
+      <c r="H79">
+        <v>0</v>
       </c>
       <c r="I79">
         <v>16</v>
@@ -3940,8 +3911,8 @@
       <c r="C80" t="s">
         <v>255</v>
       </c>
-      <c r="D80" t="s">
-        <v>257</v>
+      <c r="D80">
+        <v>1</v>
       </c>
       <c r="E80">
         <v>0.25</v>
@@ -3952,8 +3923,8 @@
       <c r="G80">
         <v>100</v>
       </c>
-      <c r="H80" t="s">
-        <v>261</v>
+      <c r="H80">
+        <v>0</v>
       </c>
       <c r="I80">
         <v>16</v>
@@ -3975,8 +3946,8 @@
       <c r="C81" t="s">
         <v>256</v>
       </c>
-      <c r="D81" t="s">
-        <v>258</v>
+      <c r="D81">
+        <v>0</v>
       </c>
       <c r="E81">
         <v>3.75</v>
@@ -3987,8 +3958,8 @@
       <c r="G81">
         <v>90</v>
       </c>
-      <c r="H81" t="s">
-        <v>261</v>
+      <c r="H81">
+        <v>0</v>
       </c>
       <c r="I81">
         <v>16</v>
@@ -4010,8 +3981,8 @@
       <c r="C82" t="s">
         <v>256</v>
       </c>
-      <c r="D82" t="s">
-        <v>258</v>
+      <c r="D82">
+        <v>0</v>
       </c>
       <c r="E82">
         <v>1.75</v>
@@ -4022,8 +3993,8 @@
       <c r="G82">
         <v>110</v>
       </c>
-      <c r="H82" t="s">
-        <v>261</v>
+      <c r="H82">
+        <v>0</v>
       </c>
       <c r="I82">
         <v>16</v>
@@ -4045,8 +4016,8 @@
       <c r="C83" t="s">
         <v>256</v>
       </c>
-      <c r="D83" t="s">
-        <v>257</v>
+      <c r="D83">
+        <v>1</v>
       </c>
       <c r="E83">
         <v>0.75</v>
@@ -4057,8 +4028,8 @@
       <c r="G83">
         <v>100</v>
       </c>
-      <c r="H83" t="s">
-        <v>261</v>
+      <c r="H83">
+        <v>0</v>
       </c>
       <c r="I83">
         <v>16</v>
@@ -4080,8 +4051,8 @@
       <c r="C84" t="s">
         <v>256</v>
       </c>
-      <c r="D84" t="s">
-        <v>257</v>
+      <c r="D84">
+        <v>1</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -4092,8 +4063,8 @@
       <c r="G84">
         <v>77</v>
       </c>
-      <c r="H84" t="s">
-        <v>261</v>
+      <c r="H84">
+        <v>0</v>
       </c>
       <c r="I84">
         <v>16</v>
@@ -4115,8 +4086,8 @@
       <c r="C85" t="s">
         <v>255</v>
       </c>
-      <c r="D85" t="s">
-        <v>257</v>
+      <c r="D85">
+        <v>1</v>
       </c>
       <c r="E85">
         <v>-2.5</v>
@@ -4127,8 +4098,8 @@
       <c r="G85">
         <v>92.37656903765691</v>
       </c>
-      <c r="H85" t="s">
-        <v>261</v>
+      <c r="H85">
+        <v>0</v>
       </c>
       <c r="I85">
         <v>16</v>
@@ -4150,8 +4121,8 @@
       <c r="C86" t="s">
         <v>255</v>
       </c>
-      <c r="D86" t="s">
-        <v>258</v>
+      <c r="D86">
+        <v>0</v>
       </c>
       <c r="E86">
         <v>0.25</v>
@@ -4162,8 +4133,8 @@
       <c r="G86">
         <v>125</v>
       </c>
-      <c r="H86" t="s">
-        <v>261</v>
+      <c r="H86">
+        <v>0</v>
       </c>
       <c r="I86">
         <v>16</v>
@@ -4185,8 +4156,8 @@
       <c r="C87" t="s">
         <v>255</v>
       </c>
-      <c r="D87" t="s">
-        <v>258</v>
+      <c r="D87">
+        <v>0</v>
       </c>
       <c r="E87">
         <v>0.75</v>
@@ -4197,8 +4168,8 @@
       <c r="G87">
         <v>97</v>
       </c>
-      <c r="H87" t="s">
-        <v>261</v>
+      <c r="H87">
+        <v>0</v>
       </c>
       <c r="I87">
         <v>16</v>
@@ -4220,8 +4191,8 @@
       <c r="C88" t="s">
         <v>255</v>
       </c>
-      <c r="D88" t="s">
-        <v>259</v>
+      <c r="D88">
+        <v>2</v>
       </c>
       <c r="E88">
         <v>-5.5</v>
@@ -4232,8 +4203,8 @@
       <c r="G88">
         <v>165</v>
       </c>
-      <c r="H88" t="s">
-        <v>261</v>
+      <c r="H88">
+        <v>0</v>
       </c>
       <c r="I88">
         <v>17</v>
@@ -4255,8 +4226,8 @@
       <c r="C89" t="s">
         <v>256</v>
       </c>
-      <c r="D89" t="s">
-        <v>259</v>
+      <c r="D89">
+        <v>2</v>
       </c>
       <c r="E89">
         <v>0.75</v>
@@ -4267,8 +4238,8 @@
       <c r="G89">
         <v>90</v>
       </c>
-      <c r="H89" t="s">
-        <v>261</v>
+      <c r="H89">
+        <v>0</v>
       </c>
       <c r="I89">
         <v>15</v>
@@ -4290,8 +4261,8 @@
       <c r="C90" t="s">
         <v>256</v>
       </c>
-      <c r="D90" t="s">
-        <v>259</v>
+      <c r="D90">
+        <v>2</v>
       </c>
       <c r="E90">
         <v>2.5</v>
@@ -4302,8 +4273,8 @@
       <c r="G90">
         <v>110</v>
       </c>
-      <c r="H90" t="s">
-        <v>261</v>
+      <c r="H90">
+        <v>0</v>
       </c>
       <c r="I90">
         <v>14</v>
@@ -4325,8 +4296,8 @@
       <c r="C91" t="s">
         <v>256</v>
       </c>
-      <c r="D91" t="s">
-        <v>259</v>
+      <c r="D91">
+        <v>2</v>
       </c>
       <c r="E91">
         <v>7.5</v>
@@ -4337,8 +4308,8 @@
       <c r="G91">
         <v>80</v>
       </c>
-      <c r="H91" t="s">
-        <v>261</v>
+      <c r="H91">
+        <v>0</v>
       </c>
       <c r="I91">
         <v>13</v>
@@ -4360,8 +4331,8 @@
       <c r="C92" t="s">
         <v>255</v>
       </c>
-      <c r="D92" t="s">
-        <v>259</v>
+      <c r="D92">
+        <v>2</v>
       </c>
       <c r="E92">
         <v>0.5</v>
@@ -4372,8 +4343,8 @@
       <c r="G92">
         <v>180</v>
       </c>
-      <c r="H92" t="s">
-        <v>261</v>
+      <c r="H92">
+        <v>0</v>
       </c>
       <c r="I92">
         <v>15</v>
@@ -4395,8 +4366,8 @@
       <c r="C93" t="s">
         <v>256</v>
       </c>
-      <c r="D93" t="s">
-        <v>259</v>
+      <c r="D93">
+        <v>2</v>
       </c>
       <c r="E93">
         <v>0.25</v>
@@ -4407,8 +4378,8 @@
       <c r="G93">
         <v>160</v>
       </c>
-      <c r="H93" t="s">
-        <v>261</v>
+      <c r="H93">
+        <v>0</v>
       </c>
       <c r="I93">
         <v>14</v>
@@ -4430,8 +4401,8 @@
       <c r="C94" t="s">
         <v>256</v>
       </c>
-      <c r="D94" t="s">
-        <v>259</v>
+      <c r="D94">
+        <v>2</v>
       </c>
       <c r="E94">
         <v>1.5</v>
@@ -4442,8 +4413,8 @@
       <c r="G94">
         <v>80</v>
       </c>
-      <c r="H94" t="s">
-        <v>261</v>
+      <c r="H94">
+        <v>0</v>
       </c>
       <c r="I94">
         <v>23</v>
@@ -4465,8 +4436,8 @@
       <c r="C95" t="s">
         <v>256</v>
       </c>
-      <c r="D95" t="s">
-        <v>259</v>
+      <c r="D95">
+        <v>2</v>
       </c>
       <c r="E95">
         <v>2.75</v>
@@ -4477,8 +4448,8 @@
       <c r="G95">
         <v>115</v>
       </c>
-      <c r="H95" t="s">
-        <v>261</v>
+      <c r="H95">
+        <v>0</v>
       </c>
       <c r="I95">
         <v>16</v>
@@ -4500,8 +4471,8 @@
       <c r="C96" t="s">
         <v>255</v>
       </c>
-      <c r="D96" t="s">
-        <v>259</v>
+      <c r="D96">
+        <v>2</v>
       </c>
       <c r="E96">
         <v>-0.5</v>
@@ -4512,8 +4483,8 @@
       <c r="G96">
         <v>90</v>
       </c>
-      <c r="H96" t="s">
-        <v>261</v>
+      <c r="H96">
+        <v>0</v>
       </c>
       <c r="I96">
         <v>11</v>
@@ -4535,8 +4506,8 @@
       <c r="C97" t="s">
         <v>255</v>
       </c>
-      <c r="D97" t="s">
-        <v>259</v>
+      <c r="D97">
+        <v>2</v>
       </c>
       <c r="E97">
         <v>1.75</v>
@@ -4547,8 +4518,8 @@
       <c r="G97">
         <v>70</v>
       </c>
-      <c r="H97" t="s">
-        <v>261</v>
+      <c r="H97">
+        <v>0</v>
       </c>
       <c r="I97">
         <v>16</v>
@@ -4570,8 +4541,8 @@
       <c r="C98" t="s">
         <v>256</v>
       </c>
-      <c r="D98" t="s">
-        <v>259</v>
+      <c r="D98">
+        <v>2</v>
       </c>
       <c r="E98">
         <v>0.75</v>
@@ -4582,8 +4553,8 @@
       <c r="G98">
         <v>164</v>
       </c>
-      <c r="H98" t="s">
-        <v>261</v>
+      <c r="H98">
+        <v>0</v>
       </c>
       <c r="I98">
         <v>16</v>
@@ -4605,8 +4576,8 @@
       <c r="C99" t="s">
         <v>255</v>
       </c>
-      <c r="D99" t="s">
-        <v>259</v>
+      <c r="D99">
+        <v>2</v>
       </c>
       <c r="E99">
         <v>3.25</v>
@@ -4617,8 +4588,8 @@
       <c r="G99">
         <v>100</v>
       </c>
-      <c r="H99" t="s">
-        <v>261</v>
+      <c r="H99">
+        <v>0</v>
       </c>
       <c r="I99">
         <v>18</v>
@@ -4640,8 +4611,8 @@
       <c r="C100" t="s">
         <v>256</v>
       </c>
-      <c r="D100" t="s">
-        <v>259</v>
+      <c r="D100">
+        <v>2</v>
       </c>
       <c r="E100">
         <v>1.25</v>
@@ -4652,8 +4623,8 @@
       <c r="G100">
         <v>77</v>
       </c>
-      <c r="H100" t="s">
-        <v>261</v>
+      <c r="H100">
+        <v>0</v>
       </c>
       <c r="I100">
         <v>15</v>
@@ -4675,8 +4646,8 @@
       <c r="C101" t="s">
         <v>256</v>
       </c>
-      <c r="D101" t="s">
-        <v>259</v>
+      <c r="D101">
+        <v>2</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -4687,8 +4658,8 @@
       <c r="G101">
         <v>128</v>
       </c>
-      <c r="H101" t="s">
-        <v>261</v>
+      <c r="H101">
+        <v>0</v>
       </c>
       <c r="I101">
         <v>12</v>
@@ -4710,8 +4681,8 @@
       <c r="C102" t="s">
         <v>255</v>
       </c>
-      <c r="D102" t="s">
-        <v>259</v>
+      <c r="D102">
+        <v>2</v>
       </c>
       <c r="E102">
         <v>0.5</v>
@@ -4722,8 +4693,8 @@
       <c r="G102">
         <v>178</v>
       </c>
-      <c r="H102" t="s">
-        <v>261</v>
+      <c r="H102">
+        <v>0</v>
       </c>
       <c r="I102">
         <v>14</v>
@@ -4745,8 +4716,8 @@
       <c r="C103" t="s">
         <v>256</v>
       </c>
-      <c r="D103" t="s">
-        <v>259</v>
+      <c r="D103">
+        <v>2</v>
       </c>
       <c r="E103">
         <v>3.25</v>
@@ -4757,8 +4728,8 @@
       <c r="G103">
         <v>83</v>
       </c>
-      <c r="H103" t="s">
-        <v>262</v>
+      <c r="H103">
+        <v>1</v>
       </c>
       <c r="I103">
         <v>10</v>
@@ -4780,8 +4751,8 @@
       <c r="C104" t="s">
         <v>256</v>
       </c>
-      <c r="D104" t="s">
-        <v>259</v>
+      <c r="D104">
+        <v>2</v>
       </c>
       <c r="E104">
         <v>0.5</v>
@@ -4792,8 +4763,8 @@
       <c r="G104">
         <v>99</v>
       </c>
-      <c r="H104" t="s">
-        <v>261</v>
+      <c r="H104">
+        <v>0</v>
       </c>
       <c r="I104">
         <v>20</v>
@@ -4815,8 +4786,8 @@
       <c r="C105" t="s">
         <v>256</v>
       </c>
-      <c r="D105" t="s">
-        <v>259</v>
+      <c r="D105">
+        <v>2</v>
       </c>
       <c r="E105">
         <v>1.75</v>
@@ -4827,8 +4798,8 @@
       <c r="G105">
         <v>66</v>
       </c>
-      <c r="H105" t="s">
-        <v>261</v>
+      <c r="H105">
+        <v>0</v>
       </c>
       <c r="I105">
         <v>18</v>
@@ -4850,8 +4821,8 @@
       <c r="C106" t="s">
         <v>256</v>
       </c>
-      <c r="D106" t="s">
-        <v>259</v>
+      <c r="D106">
+        <v>2</v>
       </c>
       <c r="E106">
         <v>-0.5</v>
@@ -4862,8 +4833,8 @@
       <c r="G106">
         <v>148</v>
       </c>
-      <c r="H106" t="s">
-        <v>261</v>
+      <c r="H106">
+        <v>0</v>
       </c>
       <c r="I106">
         <v>14</v>
@@ -4885,8 +4856,8 @@
       <c r="C107" t="s">
         <v>256</v>
       </c>
-      <c r="D107" t="s">
-        <v>259</v>
+      <c r="D107">
+        <v>2</v>
       </c>
       <c r="E107">
         <v>-0.75</v>
@@ -4897,8 +4868,8 @@
       <c r="G107">
         <v>100</v>
       </c>
-      <c r="H107" t="s">
-        <v>261</v>
+      <c r="H107">
+        <v>0</v>
       </c>
       <c r="I107">
         <v>15</v>
@@ -4920,8 +4891,8 @@
       <c r="C108" t="s">
         <v>256</v>
       </c>
-      <c r="D108" t="s">
-        <v>259</v>
+      <c r="D108">
+        <v>2</v>
       </c>
       <c r="E108">
         <v>0</v>
@@ -4932,8 +4903,8 @@
       <c r="G108">
         <v>118</v>
       </c>
-      <c r="H108" t="s">
-        <v>261</v>
+      <c r="H108">
+        <v>0</v>
       </c>
       <c r="I108">
         <v>16</v>
@@ -4955,8 +4926,8 @@
       <c r="C109" t="s">
         <v>255</v>
       </c>
-      <c r="D109" t="s">
-        <v>259</v>
+      <c r="D109">
+        <v>2</v>
       </c>
       <c r="E109">
         <v>0.75</v>
@@ -4967,8 +4938,8 @@
       <c r="G109">
         <v>80</v>
       </c>
-      <c r="H109" t="s">
-        <v>260</v>
+      <c r="H109">
+        <v>1</v>
       </c>
       <c r="I109">
         <v>19</v>
@@ -4990,8 +4961,8 @@
       <c r="C110" t="s">
         <v>256</v>
       </c>
-      <c r="D110" t="s">
-        <v>259</v>
+      <c r="D110">
+        <v>2</v>
       </c>
       <c r="E110">
         <v>0</v>
@@ -5002,8 +4973,8 @@
       <c r="G110">
         <v>86</v>
       </c>
-      <c r="H110" t="s">
-        <v>261</v>
+      <c r="H110">
+        <v>0</v>
       </c>
       <c r="I110">
         <v>15</v>
@@ -5025,8 +4996,8 @@
       <c r="C111" t="s">
         <v>256</v>
       </c>
-      <c r="D111" t="s">
-        <v>259</v>
+      <c r="D111">
+        <v>2</v>
       </c>
       <c r="E111">
         <v>3</v>
@@ -5037,8 +5008,8 @@
       <c r="G111">
         <v>87</v>
       </c>
-      <c r="H111" t="s">
-        <v>261</v>
+      <c r="H111">
+        <v>0</v>
       </c>
       <c r="I111">
         <v>16</v>
@@ -5060,8 +5031,8 @@
       <c r="C112" t="s">
         <v>256</v>
       </c>
-      <c r="D112" t="s">
-        <v>259</v>
+      <c r="D112">
+        <v>2</v>
       </c>
       <c r="E112">
         <v>2.5</v>
@@ -5072,8 +5043,8 @@
       <c r="G112">
         <v>77</v>
       </c>
-      <c r="H112" t="s">
-        <v>260</v>
+      <c r="H112">
+        <v>1</v>
       </c>
       <c r="I112">
         <v>20</v>
@@ -5095,8 +5066,8 @@
       <c r="C113" t="s">
         <v>255</v>
       </c>
-      <c r="D113" t="s">
-        <v>259</v>
+      <c r="D113">
+        <v>2</v>
       </c>
       <c r="E113">
         <v>1</v>
@@ -5107,8 +5078,8 @@
       <c r="G113">
         <v>92.37656903765691</v>
       </c>
-      <c r="H113" t="s">
-        <v>260</v>
+      <c r="H113">
+        <v>1</v>
       </c>
       <c r="I113">
         <v>10</v>
@@ -5130,8 +5101,8 @@
       <c r="C114" t="s">
         <v>256</v>
       </c>
-      <c r="D114" t="s">
-        <v>259</v>
+      <c r="D114">
+        <v>2</v>
       </c>
       <c r="E114">
         <v>-1</v>
@@ -5142,8 +5113,8 @@
       <c r="G114">
         <v>53</v>
       </c>
-      <c r="H114" t="s">
-        <v>261</v>
+      <c r="H114">
+        <v>0</v>
       </c>
       <c r="I114">
         <v>9</v>
@@ -5165,8 +5136,8 @@
       <c r="C115" t="s">
         <v>256</v>
       </c>
-      <c r="D115" t="s">
-        <v>259</v>
+      <c r="D115">
+        <v>2</v>
       </c>
       <c r="E115">
         <v>2</v>
@@ -5177,8 +5148,8 @@
       <c r="G115">
         <v>90</v>
       </c>
-      <c r="H115" t="s">
-        <v>260</v>
+      <c r="H115">
+        <v>1</v>
       </c>
       <c r="I115">
         <v>24.3</v>
@@ -5200,8 +5171,8 @@
       <c r="C116" t="s">
         <v>256</v>
       </c>
-      <c r="D116" t="s">
-        <v>259</v>
+      <c r="D116">
+        <v>2</v>
       </c>
       <c r="E116">
         <v>-0.5</v>
@@ -5212,8 +5183,8 @@
       <c r="G116">
         <v>95</v>
       </c>
-      <c r="H116" t="s">
-        <v>260</v>
+      <c r="H116">
+        <v>1</v>
       </c>
       <c r="I116">
         <v>22</v>
@@ -5235,8 +5206,8 @@
       <c r="C117" t="s">
         <v>255</v>
       </c>
-      <c r="D117" t="s">
-        <v>259</v>
+      <c r="D117">
+        <v>2</v>
       </c>
       <c r="E117">
         <v>0.25</v>
@@ -5247,8 +5218,8 @@
       <c r="G117">
         <v>145</v>
       </c>
-      <c r="H117" t="s">
-        <v>260</v>
+      <c r="H117">
+        <v>1</v>
       </c>
       <c r="I117">
         <v>15</v>
@@ -5270,8 +5241,8 @@
       <c r="C118" t="s">
         <v>255</v>
       </c>
-      <c r="D118" t="s">
-        <v>259</v>
+      <c r="D118">
+        <v>2</v>
       </c>
       <c r="E118">
         <v>0.25</v>
@@ -5282,8 +5253,8 @@
       <c r="G118">
         <v>81</v>
       </c>
-      <c r="H118" t="s">
-        <v>260</v>
+      <c r="H118">
+        <v>1</v>
       </c>
       <c r="I118">
         <v>12</v>
@@ -5305,8 +5276,8 @@
       <c r="C119" t="s">
         <v>256</v>
       </c>
-      <c r="D119" t="s">
-        <v>259</v>
+      <c r="D119">
+        <v>2</v>
       </c>
       <c r="E119">
         <v>0</v>
@@ -5317,8 +5288,8 @@
       <c r="G119">
         <v>92</v>
       </c>
-      <c r="H119" t="s">
-        <v>261</v>
+      <c r="H119">
+        <v>0</v>
       </c>
       <c r="I119">
         <v>13</v>
@@ -5340,8 +5311,8 @@
       <c r="C120" t="s">
         <v>256</v>
       </c>
-      <c r="D120" t="s">
-        <v>259</v>
+      <c r="D120">
+        <v>2</v>
       </c>
       <c r="E120">
         <v>3</v>
@@ -5352,8 +5323,8 @@
       <c r="G120">
         <v>72</v>
       </c>
-      <c r="H120" t="s">
-        <v>261</v>
+      <c r="H120">
+        <v>0</v>
       </c>
       <c r="I120">
         <v>15</v>
@@ -5375,8 +5346,8 @@
       <c r="C121" t="s">
         <v>256</v>
       </c>
-      <c r="D121" t="s">
-        <v>259</v>
+      <c r="D121">
+        <v>2</v>
       </c>
       <c r="E121">
         <v>0.25</v>
@@ -5387,8 +5358,8 @@
       <c r="G121">
         <v>126</v>
       </c>
-      <c r="H121" t="s">
-        <v>261</v>
+      <c r="H121">
+        <v>0</v>
       </c>
       <c r="I121">
         <v>14</v>
@@ -5410,8 +5381,8 @@
       <c r="C122" t="s">
         <v>256</v>
       </c>
-      <c r="D122" t="s">
-        <v>259</v>
+      <c r="D122">
+        <v>2</v>
       </c>
       <c r="E122">
         <v>4.25</v>
@@ -5422,8 +5393,8 @@
       <c r="G122">
         <v>84</v>
       </c>
-      <c r="H122" t="s">
-        <v>261</v>
+      <c r="H122">
+        <v>0</v>
       </c>
       <c r="I122">
         <v>18</v>
@@ -5445,8 +5416,8 @@
       <c r="C123" t="s">
         <v>256</v>
       </c>
-      <c r="D123" t="s">
-        <v>259</v>
+      <c r="D123">
+        <v>2</v>
       </c>
       <c r="E123">
         <v>2</v>
@@ -5457,8 +5428,8 @@
       <c r="G123">
         <v>153</v>
       </c>
-      <c r="H123" t="s">
-        <v>261</v>
+      <c r="H123">
+        <v>0</v>
       </c>
       <c r="I123">
         <v>18</v>
@@ -5480,8 +5451,8 @@
       <c r="C124" t="s">
         <v>256</v>
       </c>
-      <c r="D124" t="s">
-        <v>259</v>
+      <c r="D124">
+        <v>2</v>
       </c>
       <c r="E124">
         <v>-0.5</v>
@@ -5492,8 +5463,8 @@
       <c r="G124">
         <v>150</v>
       </c>
-      <c r="H124" t="s">
-        <v>261</v>
+      <c r="H124">
+        <v>0</v>
       </c>
       <c r="I124">
         <v>18</v>
@@ -5515,8 +5486,8 @@
       <c r="C125" t="s">
         <v>256</v>
       </c>
-      <c r="D125" t="s">
-        <v>259</v>
+      <c r="D125">
+        <v>2</v>
       </c>
       <c r="E125">
         <v>2.5</v>
@@ -5527,8 +5498,8 @@
       <c r="G125">
         <v>79</v>
       </c>
-      <c r="H125" t="s">
-        <v>261</v>
+      <c r="H125">
+        <v>0</v>
       </c>
       <c r="I125">
         <v>14</v>
@@ -5550,8 +5521,8 @@
       <c r="C126" t="s">
         <v>255</v>
       </c>
-      <c r="D126" t="s">
-        <v>259</v>
+      <c r="D126">
+        <v>2</v>
       </c>
       <c r="E126">
         <v>0</v>
@@ -5562,8 +5533,8 @@
       <c r="G126">
         <v>150</v>
       </c>
-      <c r="H126" t="s">
-        <v>261</v>
+      <c r="H126">
+        <v>0</v>
       </c>
       <c r="I126">
         <v>12</v>
@@ -5585,8 +5556,8 @@
       <c r="C127" t="s">
         <v>255</v>
       </c>
-      <c r="D127" t="s">
-        <v>259</v>
+      <c r="D127">
+        <v>2</v>
       </c>
       <c r="E127">
         <v>0</v>
@@ -5597,8 +5568,8 @@
       <c r="G127">
         <v>94</v>
       </c>
-      <c r="H127" t="s">
-        <v>261</v>
+      <c r="H127">
+        <v>0</v>
       </c>
       <c r="I127">
         <v>17</v>
@@ -5620,8 +5591,8 @@
       <c r="C128" t="s">
         <v>255</v>
       </c>
-      <c r="D128" t="s">
-        <v>259</v>
+      <c r="D128">
+        <v>2</v>
       </c>
       <c r="E128">
         <v>3.75</v>
@@ -5632,8 +5603,8 @@
       <c r="G128">
         <v>88</v>
       </c>
-      <c r="H128" t="s">
-        <v>260</v>
+      <c r="H128">
+        <v>1</v>
       </c>
       <c r="I128">
         <v>18</v>
@@ -5655,8 +5626,8 @@
       <c r="C129" t="s">
         <v>256</v>
       </c>
-      <c r="D129" t="s">
-        <v>259</v>
+      <c r="D129">
+        <v>2</v>
       </c>
       <c r="E129">
         <v>1.75</v>
@@ -5667,8 +5638,8 @@
       <c r="G129">
         <v>86</v>
       </c>
-      <c r="H129" t="s">
-        <v>261</v>
+      <c r="H129">
+        <v>0</v>
       </c>
       <c r="I129">
         <v>11</v>
@@ -5690,8 +5661,8 @@
       <c r="C130" t="s">
         <v>255</v>
       </c>
-      <c r="D130" t="s">
-        <v>259</v>
+      <c r="D130">
+        <v>2</v>
       </c>
       <c r="E130">
         <v>-3</v>
@@ -5702,8 +5673,8 @@
       <c r="G130">
         <v>10</v>
       </c>
-      <c r="H130" t="s">
-        <v>261</v>
+      <c r="H130">
+        <v>0</v>
       </c>
       <c r="I130">
         <v>16</v>
@@ -5725,8 +5696,8 @@
       <c r="C131" t="s">
         <v>255</v>
       </c>
-      <c r="D131" t="s">
-        <v>259</v>
+      <c r="D131">
+        <v>2</v>
       </c>
       <c r="E131">
         <v>0.75</v>
@@ -5737,8 +5708,8 @@
       <c r="G131">
         <v>165</v>
       </c>
-      <c r="H131" t="s">
-        <v>260</v>
+      <c r="H131">
+        <v>1</v>
       </c>
       <c r="I131">
         <v>16</v>
@@ -5760,8 +5731,8 @@
       <c r="C132" t="s">
         <v>256</v>
       </c>
-      <c r="D132" t="s">
-        <v>259</v>
+      <c r="D132">
+        <v>2</v>
       </c>
       <c r="E132">
         <v>-4.5</v>
@@ -5772,8 +5743,8 @@
       <c r="G132">
         <v>11</v>
       </c>
-      <c r="H132" t="s">
-        <v>261</v>
+      <c r="H132">
+        <v>0</v>
       </c>
       <c r="I132">
         <v>15</v>
@@ -5795,8 +5766,8 @@
       <c r="C133" t="s">
         <v>255</v>
       </c>
-      <c r="D133" t="s">
-        <v>259</v>
+      <c r="D133">
+        <v>2</v>
       </c>
       <c r="E133">
         <v>1</v>
@@ -5807,8 +5778,8 @@
       <c r="G133">
         <v>75</v>
       </c>
-      <c r="H133" t="s">
-        <v>260</v>
+      <c r="H133">
+        <v>1</v>
       </c>
       <c r="I133">
         <v>15</v>
@@ -5830,8 +5801,8 @@
       <c r="C134" t="s">
         <v>256</v>
       </c>
-      <c r="D134" t="s">
-        <v>259</v>
+      <c r="D134">
+        <v>2</v>
       </c>
       <c r="E134">
         <v>-0.25</v>
@@ -5842,8 +5813,8 @@
       <c r="G134">
         <v>179</v>
       </c>
-      <c r="H134" t="s">
-        <v>261</v>
+      <c r="H134">
+        <v>0</v>
       </c>
       <c r="I134">
         <v>11</v>
@@ -5865,8 +5836,8 @@
       <c r="C135" t="s">
         <v>256</v>
       </c>
-      <c r="D135" t="s">
-        <v>259</v>
+      <c r="D135">
+        <v>2</v>
       </c>
       <c r="E135">
         <v>3.25</v>
@@ -5877,8 +5848,8 @@
       <c r="G135">
         <v>95</v>
       </c>
-      <c r="H135" t="s">
-        <v>260</v>
+      <c r="H135">
+        <v>1</v>
       </c>
       <c r="I135">
         <v>19</v>
@@ -5900,8 +5871,8 @@
       <c r="C136" t="s">
         <v>256</v>
       </c>
-      <c r="D136" t="s">
-        <v>259</v>
+      <c r="D136">
+        <v>2</v>
       </c>
       <c r="E136">
         <v>3.25</v>
@@ -5912,8 +5883,8 @@
       <c r="G136">
         <v>94</v>
       </c>
-      <c r="H136" t="s">
-        <v>260</v>
+      <c r="H136">
+        <v>1</v>
       </c>
       <c r="I136">
         <v>22</v>
@@ -5935,8 +5906,8 @@
       <c r="C137" t="s">
         <v>256</v>
       </c>
-      <c r="D137" t="s">
-        <v>259</v>
+      <c r="D137">
+        <v>2</v>
       </c>
       <c r="E137">
         <v>1</v>
@@ -5947,8 +5918,8 @@
       <c r="G137">
         <v>170</v>
       </c>
-      <c r="H137" t="s">
-        <v>260</v>
+      <c r="H137">
+        <v>1</v>
       </c>
       <c r="I137">
         <v>17</v>
@@ -5970,8 +5941,8 @@
       <c r="C138" t="s">
         <v>255</v>
       </c>
-      <c r="D138" t="s">
-        <v>257</v>
+      <c r="D138">
+        <v>1</v>
       </c>
       <c r="E138">
         <v>0.25</v>
@@ -5982,8 +5953,8 @@
       <c r="G138">
         <v>85</v>
       </c>
-      <c r="H138" t="s">
-        <v>261</v>
+      <c r="H138">
+        <v>0</v>
       </c>
       <c r="I138">
         <v>24</v>
@@ -6005,8 +5976,8 @@
       <c r="C139" t="s">
         <v>255</v>
       </c>
-      <c r="D139" t="s">
-        <v>259</v>
+      <c r="D139">
+        <v>2</v>
       </c>
       <c r="E139">
         <v>0</v>
@@ -6017,8 +5988,8 @@
       <c r="G139">
         <v>83</v>
       </c>
-      <c r="H139" t="s">
-        <v>260</v>
+      <c r="H139">
+        <v>1</v>
       </c>
       <c r="I139">
         <v>18</v>
@@ -6040,8 +6011,8 @@
       <c r="C140" t="s">
         <v>256</v>
       </c>
-      <c r="D140" t="s">
-        <v>259</v>
+      <c r="D140">
+        <v>2</v>
       </c>
       <c r="E140">
         <v>2</v>
@@ -6052,8 +6023,8 @@
       <c r="G140">
         <v>90</v>
       </c>
-      <c r="H140" t="s">
-        <v>260</v>
+      <c r="H140">
+        <v>1</v>
       </c>
       <c r="I140">
         <v>15</v>
@@ -6075,8 +6046,8 @@
       <c r="C141" t="s">
         <v>256</v>
       </c>
-      <c r="D141" t="s">
-        <v>259</v>
+      <c r="D141">
+        <v>2</v>
       </c>
       <c r="E141">
         <v>2.25</v>
@@ -6087,8 +6058,8 @@
       <c r="G141">
         <v>110</v>
       </c>
-      <c r="H141" t="s">
-        <v>260</v>
+      <c r="H141">
+        <v>1</v>
       </c>
       <c r="I141">
         <v>18</v>
@@ -6110,8 +6081,8 @@
       <c r="C142" t="s">
         <v>256</v>
       </c>
-      <c r="D142" t="s">
-        <v>259</v>
+      <c r="D142">
+        <v>2</v>
       </c>
       <c r="E142">
         <v>1.75</v>
@@ -6122,8 +6093,8 @@
       <c r="G142">
         <v>85</v>
       </c>
-      <c r="H142" t="s">
-        <v>260</v>
+      <c r="H142">
+        <v>1</v>
       </c>
       <c r="I142">
         <v>17</v>
@@ -6145,8 +6116,8 @@
       <c r="C143" t="s">
         <v>256</v>
       </c>
-      <c r="D143" t="s">
-        <v>259</v>
+      <c r="D143">
+        <v>2</v>
       </c>
       <c r="E143">
         <v>-4.75</v>
@@ -6157,8 +6128,8 @@
       <c r="G143">
         <v>55</v>
       </c>
-      <c r="H143" t="s">
-        <v>261</v>
+      <c r="H143">
+        <v>0</v>
       </c>
       <c r="I143">
         <v>20</v>
@@ -6180,8 +6151,8 @@
       <c r="C144" t="s">
         <v>256</v>
       </c>
-      <c r="D144" t="s">
-        <v>259</v>
+      <c r="D144">
+        <v>2</v>
       </c>
       <c r="E144">
         <v>1.75</v>
@@ -6192,8 +6163,8 @@
       <c r="G144">
         <v>95</v>
       </c>
-      <c r="H144" t="s">
-        <v>260</v>
+      <c r="H144">
+        <v>1</v>
       </c>
       <c r="I144">
         <v>18</v>
@@ -6215,8 +6186,8 @@
       <c r="C145" t="s">
         <v>256</v>
       </c>
-      <c r="D145" t="s">
-        <v>259</v>
+      <c r="D145">
+        <v>2</v>
       </c>
       <c r="E145">
         <v>2.75</v>
@@ -6227,8 +6198,8 @@
       <c r="G145">
         <v>7</v>
       </c>
-      <c r="H145" t="s">
-        <v>260</v>
+      <c r="H145">
+        <v>1</v>
       </c>
       <c r="I145">
         <v>15</v>
@@ -6250,8 +6221,8 @@
       <c r="C146" t="s">
         <v>255</v>
       </c>
-      <c r="D146" t="s">
-        <v>259</v>
+      <c r="D146">
+        <v>2</v>
       </c>
       <c r="E146">
         <v>1.5</v>
@@ -6262,8 +6233,8 @@
       <c r="G146">
         <v>79</v>
       </c>
-      <c r="H146" t="s">
-        <v>261</v>
+      <c r="H146">
+        <v>0</v>
       </c>
       <c r="I146">
         <v>13</v>
@@ -6285,8 +6256,8 @@
       <c r="C147" t="s">
         <v>256</v>
       </c>
-      <c r="D147" t="s">
-        <v>259</v>
+      <c r="D147">
+        <v>2</v>
       </c>
       <c r="E147">
         <v>0.25</v>
@@ -6297,8 +6268,8 @@
       <c r="G147">
         <v>101</v>
       </c>
-      <c r="H147" t="s">
-        <v>261</v>
+      <c r="H147">
+        <v>0</v>
       </c>
       <c r="I147">
         <v>20</v>
@@ -6320,8 +6291,8 @@
       <c r="C148" t="s">
         <v>256</v>
       </c>
-      <c r="D148" t="s">
-        <v>259</v>
+      <c r="D148">
+        <v>2</v>
       </c>
       <c r="E148">
         <v>-1.5</v>
@@ -6332,8 +6303,8 @@
       <c r="G148">
         <v>55</v>
       </c>
-      <c r="H148" t="s">
-        <v>261</v>
+      <c r="H148">
+        <v>0</v>
       </c>
       <c r="I148">
         <v>10</v>
@@ -6355,8 +6326,8 @@
       <c r="C149" t="s">
         <v>255</v>
       </c>
-      <c r="D149" t="s">
-        <v>259</v>
+      <c r="D149">
+        <v>2</v>
       </c>
       <c r="E149">
         <v>1.75</v>
@@ -6367,8 +6338,8 @@
       <c r="G149">
         <v>100</v>
       </c>
-      <c r="H149" t="s">
-        <v>261</v>
+      <c r="H149">
+        <v>0</v>
       </c>
       <c r="I149">
         <v>14</v>
@@ -6390,8 +6361,8 @@
       <c r="C150" t="s">
         <v>256</v>
       </c>
-      <c r="D150" t="s">
-        <v>257</v>
+      <c r="D150">
+        <v>1</v>
       </c>
       <c r="E150">
         <v>2</v>
@@ -6402,8 +6373,8 @@
       <c r="G150">
         <v>90</v>
       </c>
-      <c r="H150" t="s">
-        <v>261</v>
+      <c r="H150">
+        <v>0</v>
       </c>
       <c r="I150">
         <v>24</v>
@@ -6425,8 +6396,8 @@
       <c r="C151" t="s">
         <v>256</v>
       </c>
-      <c r="D151" t="s">
-        <v>259</v>
+      <c r="D151">
+        <v>2</v>
       </c>
       <c r="E151">
         <v>1.75</v>
@@ -6437,8 +6408,8 @@
       <c r="G151">
         <v>97</v>
       </c>
-      <c r="H151" t="s">
-        <v>261</v>
+      <c r="H151">
+        <v>0</v>
       </c>
       <c r="I151">
         <v>15</v>
@@ -6460,8 +6431,8 @@
       <c r="C152" t="s">
         <v>256</v>
       </c>
-      <c r="D152" t="s">
-        <v>257</v>
+      <c r="D152">
+        <v>1</v>
       </c>
       <c r="E152">
         <v>-0.75</v>
@@ -6472,8 +6443,8 @@
       <c r="G152">
         <v>70</v>
       </c>
-      <c r="H152" t="s">
-        <v>261</v>
+      <c r="H152">
+        <v>0</v>
       </c>
       <c r="I152">
         <v>16</v>
@@ -6495,8 +6466,8 @@
       <c r="C153" t="s">
         <v>256</v>
       </c>
-      <c r="D153" t="s">
-        <v>259</v>
+      <c r="D153">
+        <v>2</v>
       </c>
       <c r="E153">
         <v>-2</v>
@@ -6507,8 +6478,8 @@
       <c r="G153">
         <v>153</v>
       </c>
-      <c r="H153" t="s">
-        <v>261</v>
+      <c r="H153">
+        <v>0</v>
       </c>
       <c r="I153">
         <v>11</v>
@@ -6530,8 +6501,8 @@
       <c r="C154" t="s">
         <v>255</v>
       </c>
-      <c r="D154" t="s">
-        <v>259</v>
+      <c r="D154">
+        <v>2</v>
       </c>
       <c r="E154">
         <v>0.5</v>
@@ -6542,8 +6513,8 @@
       <c r="G154">
         <v>93</v>
       </c>
-      <c r="H154" t="s">
-        <v>261</v>
+      <c r="H154">
+        <v>0</v>
       </c>
       <c r="I154">
         <v>15</v>
@@ -6565,8 +6536,8 @@
       <c r="C155" t="s">
         <v>255</v>
       </c>
-      <c r="D155" t="s">
-        <v>259</v>
+      <c r="D155">
+        <v>2</v>
       </c>
       <c r="E155">
         <v>0.25</v>
@@ -6577,8 +6548,8 @@
       <c r="G155">
         <v>60</v>
       </c>
-      <c r="H155" t="s">
-        <v>261</v>
+      <c r="H155">
+        <v>0</v>
       </c>
       <c r="I155">
         <v>14</v>
@@ -6600,8 +6571,8 @@
       <c r="C156" t="s">
         <v>256</v>
       </c>
-      <c r="D156" t="s">
-        <v>259</v>
+      <c r="D156">
+        <v>2</v>
       </c>
       <c r="E156">
         <v>1.25</v>
@@ -6612,8 +6583,8 @@
       <c r="G156">
         <v>90</v>
       </c>
-      <c r="H156" t="s">
-        <v>261</v>
+      <c r="H156">
+        <v>0</v>
       </c>
       <c r="I156">
         <v>16</v>
@@ -6635,8 +6606,8 @@
       <c r="C157" t="s">
         <v>256</v>
       </c>
-      <c r="D157" t="s">
-        <v>259</v>
+      <c r="D157">
+        <v>2</v>
       </c>
       <c r="E157">
         <v>0.75</v>
@@ -6647,8 +6618,8 @@
       <c r="G157">
         <v>115</v>
       </c>
-      <c r="H157" t="s">
-        <v>261</v>
+      <c r="H157">
+        <v>0</v>
       </c>
       <c r="I157">
         <v>15</v>
@@ -6670,8 +6641,8 @@
       <c r="C158" t="s">
         <v>255</v>
       </c>
-      <c r="D158" t="s">
-        <v>259</v>
+      <c r="D158">
+        <v>2</v>
       </c>
       <c r="E158">
         <v>1.75</v>
@@ -6682,8 +6653,8 @@
       <c r="G158">
         <v>70</v>
       </c>
-      <c r="H158" t="s">
-        <v>260</v>
+      <c r="H158">
+        <v>1</v>
       </c>
       <c r="I158">
         <v>21</v>
@@ -6705,8 +6676,8 @@
       <c r="C159" t="s">
         <v>256</v>
       </c>
-      <c r="D159" t="s">
-        <v>259</v>
+      <c r="D159">
+        <v>2</v>
       </c>
       <c r="E159">
         <v>-4</v>
@@ -6717,8 +6688,8 @@
       <c r="G159">
         <v>95</v>
       </c>
-      <c r="H159" t="s">
-        <v>260</v>
+      <c r="H159">
+        <v>1</v>
       </c>
       <c r="I159">
         <v>14</v>
@@ -6740,8 +6711,8 @@
       <c r="C160" t="s">
         <v>255</v>
       </c>
-      <c r="D160" t="s">
-        <v>259</v>
+      <c r="D160">
+        <v>2</v>
       </c>
       <c r="E160">
         <v>2.5</v>
@@ -6752,8 +6723,8 @@
       <c r="G160">
         <v>80</v>
       </c>
-      <c r="H160" t="s">
-        <v>260</v>
+      <c r="H160">
+        <v>1</v>
       </c>
       <c r="I160">
         <v>18</v>
@@ -6775,8 +6746,8 @@
       <c r="C161" t="s">
         <v>255</v>
       </c>
-      <c r="D161" t="s">
-        <v>259</v>
+      <c r="D161">
+        <v>2</v>
       </c>
       <c r="E161">
         <v>2.25</v>
@@ -6787,8 +6758,8 @@
       <c r="G161">
         <v>80</v>
       </c>
-      <c r="H161" t="s">
-        <v>261</v>
+      <c r="H161">
+        <v>0</v>
       </c>
       <c r="I161">
         <v>14</v>
@@ -6810,8 +6781,8 @@
       <c r="C162" t="s">
         <v>256</v>
       </c>
-      <c r="D162" t="s">
-        <v>259</v>
+      <c r="D162">
+        <v>2</v>
       </c>
       <c r="E162">
         <v>-2</v>
@@ -6822,8 +6793,8 @@
       <c r="G162">
         <v>90</v>
       </c>
-      <c r="H162" t="s">
-        <v>260</v>
+      <c r="H162">
+        <v>1</v>
       </c>
       <c r="I162">
         <v>15</v>
@@ -6845,8 +6816,8 @@
       <c r="C163" t="s">
         <v>255</v>
       </c>
-      <c r="D163" t="s">
-        <v>259</v>
+      <c r="D163">
+        <v>2</v>
       </c>
       <c r="E163">
         <v>5.5</v>
@@ -6857,8 +6828,8 @@
       <c r="G163">
         <v>5</v>
       </c>
-      <c r="H163" t="s">
-        <v>260</v>
+      <c r="H163">
+        <v>1</v>
       </c>
       <c r="I163">
         <v>13</v>
@@ -6880,8 +6851,8 @@
       <c r="C164" t="s">
         <v>256</v>
       </c>
-      <c r="D164" t="s">
-        <v>259</v>
+      <c r="D164">
+        <v>2</v>
       </c>
       <c r="E164">
         <v>3.25</v>
@@ -6892,8 +6863,8 @@
       <c r="G164">
         <v>100</v>
       </c>
-      <c r="H164" t="s">
-        <v>260</v>
+      <c r="H164">
+        <v>1</v>
       </c>
       <c r="I164">
         <v>16</v>
@@ -6915,8 +6886,8 @@
       <c r="C165" t="s">
         <v>256</v>
       </c>
-      <c r="D165" t="s">
-        <v>259</v>
+      <c r="D165">
+        <v>2</v>
       </c>
       <c r="E165">
         <v>-1.5</v>
@@ -6927,8 +6898,8 @@
       <c r="G165">
         <v>160</v>
       </c>
-      <c r="H165" t="s">
-        <v>260</v>
+      <c r="H165">
+        <v>1</v>
       </c>
       <c r="I165">
         <v>18</v>
@@ -6950,8 +6921,8 @@
       <c r="C166" t="s">
         <v>256</v>
       </c>
-      <c r="D166" t="s">
-        <v>259</v>
+      <c r="D166">
+        <v>2</v>
       </c>
       <c r="E166">
         <v>3.5</v>
@@ -6962,8 +6933,8 @@
       <c r="G166">
         <v>95</v>
       </c>
-      <c r="H166" t="s">
-        <v>262</v>
+      <c r="H166">
+        <v>1</v>
       </c>
       <c r="I166">
         <v>19</v>
@@ -6985,8 +6956,8 @@
       <c r="C167" t="s">
         <v>255</v>
       </c>
-      <c r="D167" t="s">
-        <v>259</v>
+      <c r="D167">
+        <v>2</v>
       </c>
       <c r="E167">
         <v>-0.5</v>
@@ -6997,8 +6968,8 @@
       <c r="G167">
         <v>94</v>
       </c>
-      <c r="H167" t="s">
-        <v>261</v>
+      <c r="H167">
+        <v>0</v>
       </c>
       <c r="I167">
         <v>26</v>
@@ -7020,8 +6991,8 @@
       <c r="C168" t="s">
         <v>256</v>
       </c>
-      <c r="D168" t="s">
-        <v>259</v>
+      <c r="D168">
+        <v>2</v>
       </c>
       <c r="E168">
         <v>2.25</v>
@@ -7032,8 +7003,8 @@
       <c r="G168">
         <v>46</v>
       </c>
-      <c r="H168" t="s">
-        <v>261</v>
+      <c r="H168">
+        <v>0</v>
       </c>
       <c r="I168">
         <v>18</v>
@@ -7055,8 +7026,8 @@
       <c r="C169" t="s">
         <v>256</v>
       </c>
-      <c r="D169" t="s">
-        <v>259</v>
+      <c r="D169">
+        <v>2</v>
       </c>
       <c r="E169">
         <v>0</v>
@@ -7067,8 +7038,8 @@
       <c r="G169">
         <v>110</v>
       </c>
-      <c r="H169" t="s">
-        <v>261</v>
+      <c r="H169">
+        <v>0</v>
       </c>
       <c r="I169">
         <v>20</v>
@@ -7090,8 +7061,8 @@
       <c r="C170" t="s">
         <v>256</v>
       </c>
-      <c r="D170" t="s">
-        <v>259</v>
+      <c r="D170">
+        <v>2</v>
       </c>
       <c r="E170">
         <v>0.75</v>
@@ -7102,8 +7073,8 @@
       <c r="G170">
         <v>92.37656903765691</v>
       </c>
-      <c r="H170" t="s">
-        <v>261</v>
+      <c r="H170">
+        <v>0</v>
       </c>
       <c r="I170">
         <v>16</v>
@@ -7125,8 +7096,8 @@
       <c r="C171" t="s">
         <v>256</v>
       </c>
-      <c r="D171" t="s">
-        <v>259</v>
+      <c r="D171">
+        <v>2</v>
       </c>
       <c r="E171">
         <v>0.25</v>
@@ -7137,8 +7108,8 @@
       <c r="G171">
         <v>160</v>
       </c>
-      <c r="H171" t="s">
-        <v>261</v>
+      <c r="H171">
+        <v>0</v>
       </c>
       <c r="I171">
         <v>17</v>
@@ -7160,8 +7131,8 @@
       <c r="C172" t="s">
         <v>255</v>
       </c>
-      <c r="D172" t="s">
-        <v>259</v>
+      <c r="D172">
+        <v>2</v>
       </c>
       <c r="E172">
         <v>0.75</v>
@@ -7172,8 +7143,8 @@
       <c r="G172">
         <v>80</v>
       </c>
-      <c r="H172" t="s">
-        <v>260</v>
+      <c r="H172">
+        <v>1</v>
       </c>
       <c r="I172">
         <v>19</v>
@@ -7195,8 +7166,8 @@
       <c r="C173" t="s">
         <v>256</v>
       </c>
-      <c r="D173" t="s">
-        <v>259</v>
+      <c r="D173">
+        <v>2</v>
       </c>
       <c r="E173">
         <v>1</v>
@@ -7207,8 +7178,8 @@
       <c r="G173">
         <v>97</v>
       </c>
-      <c r="H173" t="s">
-        <v>260</v>
+      <c r="H173">
+        <v>1</v>
       </c>
       <c r="I173">
         <v>12</v>
@@ -7230,8 +7201,8 @@
       <c r="C174" t="s">
         <v>256</v>
       </c>
-      <c r="D174" t="s">
-        <v>259</v>
+      <c r="D174">
+        <v>2</v>
       </c>
       <c r="E174">
         <v>1.75</v>
@@ -7242,8 +7213,8 @@
       <c r="G174">
         <v>62</v>
       </c>
-      <c r="H174" t="s">
-        <v>261</v>
+      <c r="H174">
+        <v>0</v>
       </c>
       <c r="I174">
         <v>16</v>
@@ -7265,8 +7236,8 @@
       <c r="C175" t="s">
         <v>255</v>
       </c>
-      <c r="D175" t="s">
-        <v>259</v>
+      <c r="D175">
+        <v>2</v>
       </c>
       <c r="E175">
         <v>1.25</v>
@@ -7277,8 +7248,8 @@
       <c r="G175">
         <v>155</v>
       </c>
-      <c r="H175" t="s">
-        <v>260</v>
+      <c r="H175">
+        <v>1</v>
       </c>
       <c r="I175">
         <v>16</v>
@@ -7300,8 +7271,8 @@
       <c r="C176" t="s">
         <v>256</v>
       </c>
-      <c r="D176" t="s">
-        <v>259</v>
+      <c r="D176">
+        <v>2</v>
       </c>
       <c r="E176">
         <v>3.75</v>
@@ -7312,8 +7283,8 @@
       <c r="G176">
         <v>7</v>
       </c>
-      <c r="H176" t="s">
-        <v>261</v>
+      <c r="H176">
+        <v>0</v>
       </c>
       <c r="I176">
         <v>14</v>
@@ -7335,8 +7306,8 @@
       <c r="C177" t="s">
         <v>255</v>
       </c>
-      <c r="D177" t="s">
-        <v>259</v>
+      <c r="D177">
+        <v>2</v>
       </c>
       <c r="E177">
         <v>1</v>
@@ -7347,8 +7318,8 @@
       <c r="G177">
         <v>79</v>
       </c>
-      <c r="H177" t="s">
-        <v>261</v>
+      <c r="H177">
+        <v>0</v>
       </c>
       <c r="I177">
         <v>12</v>
@@ -7370,8 +7341,8 @@
       <c r="C178" t="s">
         <v>256</v>
       </c>
-      <c r="D178" t="s">
-        <v>259</v>
+      <c r="D178">
+        <v>2</v>
       </c>
       <c r="E178">
         <v>1</v>
@@ -7382,8 +7353,8 @@
       <c r="G178">
         <v>25</v>
       </c>
-      <c r="H178" t="s">
-        <v>261</v>
+      <c r="H178">
+        <v>0</v>
       </c>
       <c r="I178">
         <v>15</v>
@@ -7405,8 +7376,8 @@
       <c r="C179" t="s">
         <v>256</v>
       </c>
-      <c r="D179" t="s">
-        <v>259</v>
+      <c r="D179">
+        <v>2</v>
       </c>
       <c r="E179">
         <v>2.75</v>
@@ -7417,8 +7388,8 @@
       <c r="G179">
         <v>83</v>
       </c>
-      <c r="H179" t="s">
-        <v>261</v>
+      <c r="H179">
+        <v>0</v>
       </c>
       <c r="I179">
         <v>19</v>
@@ -7440,8 +7411,8 @@
       <c r="C180" t="s">
         <v>256</v>
       </c>
-      <c r="D180" t="s">
-        <v>259</v>
+      <c r="D180">
+        <v>2</v>
       </c>
       <c r="E180">
         <v>0.25</v>
@@ -7452,8 +7423,8 @@
       <c r="G180">
         <v>115</v>
       </c>
-      <c r="H180" t="s">
-        <v>261</v>
+      <c r="H180">
+        <v>0</v>
       </c>
       <c r="I180">
         <v>14</v>
@@ -7475,8 +7446,8 @@
       <c r="C181" t="s">
         <v>256</v>
       </c>
-      <c r="D181" t="s">
-        <v>259</v>
+      <c r="D181">
+        <v>2</v>
       </c>
       <c r="E181">
         <v>0.75</v>
@@ -7487,8 +7458,8 @@
       <c r="G181">
         <v>85</v>
       </c>
-      <c r="H181" t="s">
-        <v>260</v>
+      <c r="H181">
+        <v>1</v>
       </c>
       <c r="I181">
         <v>17</v>
@@ -7510,8 +7481,8 @@
       <c r="C182" t="s">
         <v>256</v>
       </c>
-      <c r="D182" t="s">
-        <v>259</v>
+      <c r="D182">
+        <v>2</v>
       </c>
       <c r="E182">
         <v>0.25</v>
@@ -7522,8 +7493,8 @@
       <c r="G182">
         <v>82</v>
       </c>
-      <c r="H182" t="s">
-        <v>261</v>
+      <c r="H182">
+        <v>0</v>
       </c>
       <c r="I182">
         <v>12</v>
@@ -7545,8 +7516,8 @@
       <c r="C183" t="s">
         <v>256</v>
       </c>
-      <c r="D183" t="s">
-        <v>259</v>
+      <c r="D183">
+        <v>2</v>
       </c>
       <c r="E183">
         <v>0.5</v>
@@ -7557,8 +7528,8 @@
       <c r="G183">
         <v>80</v>
       </c>
-      <c r="H183" t="s">
-        <v>260</v>
+      <c r="H183">
+        <v>1</v>
       </c>
       <c r="I183">
         <v>20</v>
@@ -7580,8 +7551,8 @@
       <c r="C184" t="s">
         <v>255</v>
       </c>
-      <c r="D184" t="s">
-        <v>259</v>
+      <c r="D184">
+        <v>2</v>
       </c>
       <c r="E184">
         <v>-0.5</v>
@@ -7592,8 +7563,8 @@
       <c r="G184">
         <v>12</v>
       </c>
-      <c r="H184" t="s">
-        <v>261</v>
+      <c r="H184">
+        <v>0</v>
       </c>
       <c r="I184">
         <v>24</v>
@@ -7615,8 +7586,8 @@
       <c r="C185" t="s">
         <v>255</v>
       </c>
-      <c r="D185" t="s">
-        <v>259</v>
+      <c r="D185">
+        <v>2</v>
       </c>
       <c r="E185">
         <v>2.25</v>
@@ -7627,8 +7598,8 @@
       <c r="G185">
         <v>87</v>
       </c>
-      <c r="H185" t="s">
-        <v>261</v>
+      <c r="H185">
+        <v>0</v>
       </c>
       <c r="I185">
         <v>17.7</v>
@@ -7650,8 +7621,8 @@
       <c r="C186" t="s">
         <v>256</v>
       </c>
-      <c r="D186" t="s">
-        <v>259</v>
+      <c r="D186">
+        <v>2</v>
       </c>
       <c r="E186">
         <v>0.75</v>
@@ -7662,8 +7633,8 @@
       <c r="G186">
         <v>106</v>
       </c>
-      <c r="H186" t="s">
-        <v>261</v>
+      <c r="H186">
+        <v>0</v>
       </c>
       <c r="I186">
         <v>15</v>
@@ -7685,8 +7656,8 @@
       <c r="C187" t="s">
         <v>256</v>
       </c>
-      <c r="D187" t="s">
-        <v>259</v>
+      <c r="D187">
+        <v>2</v>
       </c>
       <c r="E187">
         <v>-1.25</v>
@@ -7697,8 +7668,8 @@
       <c r="G187">
         <v>106</v>
       </c>
-      <c r="H187" t="s">
-        <v>260</v>
+      <c r="H187">
+        <v>1</v>
       </c>
       <c r="I187">
         <v>18</v>
@@ -7720,8 +7691,8 @@
       <c r="C188" t="s">
         <v>255</v>
       </c>
-      <c r="D188" t="s">
-        <v>259</v>
+      <c r="D188">
+        <v>2</v>
       </c>
       <c r="E188">
         <v>3.25</v>
@@ -7732,8 +7703,8 @@
       <c r="G188">
         <v>85</v>
       </c>
-      <c r="H188" t="s">
-        <v>260</v>
+      <c r="H188">
+        <v>1</v>
       </c>
       <c r="I188">
         <v>16</v>
@@ -7755,8 +7726,8 @@
       <c r="C189" t="s">
         <v>256</v>
       </c>
-      <c r="D189" t="s">
-        <v>258</v>
+      <c r="D189">
+        <v>0</v>
       </c>
       <c r="E189">
         <v>2</v>
@@ -7767,8 +7738,8 @@
       <c r="G189">
         <v>87</v>
       </c>
-      <c r="H189" t="s">
-        <v>260</v>
+      <c r="H189">
+        <v>1</v>
       </c>
       <c r="I189">
         <v>18</v>
@@ -7790,8 +7761,8 @@
       <c r="C190" t="s">
         <v>255</v>
       </c>
-      <c r="D190" t="s">
-        <v>259</v>
+      <c r="D190">
+        <v>2</v>
       </c>
       <c r="E190">
         <v>-0.75</v>
@@ -7802,8 +7773,8 @@
       <c r="G190">
         <v>80</v>
       </c>
-      <c r="H190" t="s">
-        <v>260</v>
+      <c r="H190">
+        <v>1</v>
       </c>
       <c r="I190">
         <v>18</v>
@@ -7825,8 +7796,8 @@
       <c r="C191" t="s">
         <v>256</v>
       </c>
-      <c r="D191" t="s">
-        <v>259</v>
+      <c r="D191">
+        <v>2</v>
       </c>
       <c r="E191">
         <v>0.5</v>
@@ -7837,8 +7808,8 @@
       <c r="G191">
         <v>160</v>
       </c>
-      <c r="H191" t="s">
-        <v>260</v>
+      <c r="H191">
+        <v>1</v>
       </c>
       <c r="I191">
         <v>16</v>
@@ -7860,8 +7831,8 @@
       <c r="C192" t="s">
         <v>256</v>
       </c>
-      <c r="D192" t="s">
-        <v>259</v>
+      <c r="D192">
+        <v>2</v>
       </c>
       <c r="E192">
         <v>1.5</v>
@@ -7872,8 +7843,8 @@
       <c r="G192">
         <v>90</v>
       </c>
-      <c r="H192" t="s">
-        <v>260</v>
+      <c r="H192">
+        <v>1</v>
       </c>
       <c r="I192">
         <v>18</v>
@@ -7895,8 +7866,8 @@
       <c r="C193" t="s">
         <v>256</v>
       </c>
-      <c r="D193" t="s">
-        <v>259</v>
+      <c r="D193">
+        <v>2</v>
       </c>
       <c r="E193">
         <v>-2.5</v>
@@ -7907,8 +7878,8 @@
       <c r="G193">
         <v>20</v>
       </c>
-      <c r="H193" t="s">
-        <v>260</v>
+      <c r="H193">
+        <v>1</v>
       </c>
       <c r="I193">
         <v>23</v>
@@ -7930,8 +7901,8 @@
       <c r="C194" t="s">
         <v>256</v>
       </c>
-      <c r="D194" t="s">
-        <v>259</v>
+      <c r="D194">
+        <v>2</v>
       </c>
       <c r="E194">
         <v>4</v>
@@ -7942,8 +7913,8 @@
       <c r="G194">
         <v>90</v>
       </c>
-      <c r="H194" t="s">
-        <v>260</v>
+      <c r="H194">
+        <v>1</v>
       </c>
       <c r="I194">
         <v>14</v>
@@ -7965,8 +7936,8 @@
       <c r="C195" t="s">
         <v>256</v>
       </c>
-      <c r="D195" t="s">
-        <v>259</v>
+      <c r="D195">
+        <v>2</v>
       </c>
       <c r="E195">
         <v>0.75</v>
@@ -7977,8 +7948,8 @@
       <c r="G195">
         <v>125</v>
       </c>
-      <c r="H195" t="s">
-        <v>260</v>
+      <c r="H195">
+        <v>1</v>
       </c>
       <c r="I195">
         <v>19</v>
@@ -8000,8 +7971,8 @@
       <c r="C196" t="s">
         <v>256</v>
       </c>
-      <c r="D196" t="s">
-        <v>259</v>
+      <c r="D196">
+        <v>2</v>
       </c>
       <c r="E196">
         <v>0.25</v>
@@ -8012,8 +7983,8 @@
       <c r="G196">
         <v>90</v>
       </c>
-      <c r="H196" t="s">
-        <v>260</v>
+      <c r="H196">
+        <v>1</v>
       </c>
       <c r="I196">
         <v>19</v>
@@ -8035,8 +8006,8 @@
       <c r="C197" t="s">
         <v>255</v>
       </c>
-      <c r="D197" t="s">
-        <v>259</v>
+      <c r="D197">
+        <v>2</v>
       </c>
       <c r="E197">
         <v>0</v>
@@ -8047,8 +8018,8 @@
       <c r="G197">
         <v>90</v>
       </c>
-      <c r="H197" t="s">
-        <v>260</v>
+      <c r="H197">
+        <v>1</v>
       </c>
       <c r="I197">
         <v>16</v>
@@ -8070,8 +8041,8 @@
       <c r="C198" t="s">
         <v>256</v>
       </c>
-      <c r="D198" t="s">
-        <v>259</v>
+      <c r="D198">
+        <v>2</v>
       </c>
       <c r="E198">
         <v>3.5</v>
@@ -8082,8 +8053,8 @@
       <c r="G198">
         <v>60</v>
       </c>
-      <c r="H198" t="s">
-        <v>260</v>
+      <c r="H198">
+        <v>1</v>
       </c>
       <c r="I198">
         <v>17</v>
@@ -8105,8 +8076,8 @@
       <c r="C199" t="s">
         <v>256</v>
       </c>
-      <c r="D199" t="s">
-        <v>259</v>
+      <c r="D199">
+        <v>2</v>
       </c>
       <c r="E199">
         <v>2.25</v>
@@ -8117,8 +8088,8 @@
       <c r="G199">
         <v>130</v>
       </c>
-      <c r="H199" t="s">
-        <v>260</v>
+      <c r="H199">
+        <v>1</v>
       </c>
       <c r="I199">
         <v>16</v>
@@ -8140,8 +8111,8 @@
       <c r="C200" t="s">
         <v>256</v>
       </c>
-      <c r="D200" t="s">
-        <v>259</v>
+      <c r="D200">
+        <v>2</v>
       </c>
       <c r="E200">
         <v>0.75</v>
@@ -8152,8 +8123,8 @@
       <c r="G200">
         <v>150</v>
       </c>
-      <c r="H200" t="s">
-        <v>260</v>
+      <c r="H200">
+        <v>1</v>
       </c>
       <c r="I200">
         <v>14</v>
@@ -8175,8 +8146,8 @@
       <c r="C201" t="s">
         <v>256</v>
       </c>
-      <c r="D201" t="s">
-        <v>259</v>
+      <c r="D201">
+        <v>2</v>
       </c>
       <c r="E201">
         <v>1</v>
@@ -8187,8 +8158,8 @@
       <c r="G201">
         <v>110</v>
       </c>
-      <c r="H201" t="s">
-        <v>260</v>
+      <c r="H201">
+        <v>1</v>
       </c>
       <c r="I201">
         <v>16</v>
@@ -8210,8 +8181,8 @@
       <c r="C202" t="s">
         <v>255</v>
       </c>
-      <c r="D202" t="s">
-        <v>259</v>
+      <c r="D202">
+        <v>2</v>
       </c>
       <c r="E202">
         <v>3.25</v>
@@ -8222,8 +8193,8 @@
       <c r="G202">
         <v>90</v>
       </c>
-      <c r="H202" t="s">
-        <v>260</v>
+      <c r="H202">
+        <v>1</v>
       </c>
       <c r="I202">
         <v>18</v>
@@ -8245,8 +8216,8 @@
       <c r="C203" t="s">
         <v>255</v>
       </c>
-      <c r="D203" t="s">
-        <v>258</v>
+      <c r="D203">
+        <v>0</v>
       </c>
       <c r="E203">
         <v>0</v>
@@ -8257,8 +8228,8 @@
       <c r="G203">
         <v>82</v>
       </c>
-      <c r="H203" t="s">
-        <v>262</v>
+      <c r="H203">
+        <v>1</v>
       </c>
       <c r="I203">
         <v>20</v>
@@ -8280,8 +8251,8 @@
       <c r="C204" t="s">
         <v>256</v>
       </c>
-      <c r="D204" t="s">
-        <v>259</v>
+      <c r="D204">
+        <v>2</v>
       </c>
       <c r="E204">
         <v>-0.25</v>
@@ -8292,8 +8263,8 @@
       <c r="G204">
         <v>76</v>
       </c>
-      <c r="H204" t="s">
-        <v>260</v>
+      <c r="H204">
+        <v>1</v>
       </c>
       <c r="I204">
         <v>18</v>
@@ -8315,8 +8286,8 @@
       <c r="C205" t="s">
         <v>256</v>
       </c>
-      <c r="D205" t="s">
-        <v>259</v>
+      <c r="D205">
+        <v>2</v>
       </c>
       <c r="E205">
         <v>0.75</v>
@@ -8327,8 +8298,8 @@
       <c r="G205">
         <v>78</v>
       </c>
-      <c r="H205" t="s">
-        <v>260</v>
+      <c r="H205">
+        <v>1</v>
       </c>
       <c r="I205">
         <v>18</v>
@@ -8350,8 +8321,8 @@
       <c r="C206" t="s">
         <v>256</v>
       </c>
-      <c r="D206" t="s">
-        <v>259</v>
+      <c r="D206">
+        <v>2</v>
       </c>
       <c r="E206">
         <v>3.05</v>
@@ -8362,8 +8333,8 @@
       <c r="G206">
         <v>70</v>
       </c>
-      <c r="H206" t="s">
-        <v>261</v>
+      <c r="H206">
+        <v>0</v>
       </c>
       <c r="I206">
         <v>13</v>
@@ -8385,8 +8356,8 @@
       <c r="C207" t="s">
         <v>255</v>
       </c>
-      <c r="D207" t="s">
-        <v>259</v>
+      <c r="D207">
+        <v>2</v>
       </c>
       <c r="E207">
         <v>1.25</v>
@@ -8397,8 +8368,8 @@
       <c r="G207">
         <v>80</v>
       </c>
-      <c r="H207" t="s">
-        <v>261</v>
+      <c r="H207">
+        <v>0</v>
       </c>
       <c r="I207">
         <v>11</v>
@@ -8420,8 +8391,8 @@
       <c r="C208" t="s">
         <v>256</v>
       </c>
-      <c r="D208" t="s">
-        <v>259</v>
+      <c r="D208">
+        <v>2</v>
       </c>
       <c r="E208">
         <v>4</v>
@@ -8432,8 +8403,8 @@
       <c r="G208">
         <v>95</v>
       </c>
-      <c r="H208" t="s">
-        <v>261</v>
+      <c r="H208">
+        <v>0</v>
       </c>
       <c r="I208">
         <v>14</v>
@@ -8455,8 +8426,8 @@
       <c r="C209" t="s">
         <v>256</v>
       </c>
-      <c r="D209" t="s">
-        <v>259</v>
+      <c r="D209">
+        <v>2</v>
       </c>
       <c r="E209">
         <v>-0.25</v>
@@ -8467,8 +8438,8 @@
       <c r="G209">
         <v>170</v>
       </c>
-      <c r="H209" t="s">
-        <v>261</v>
+      <c r="H209">
+        <v>0</v>
       </c>
       <c r="I209">
         <v>24</v>
@@ -8490,8 +8461,8 @@
       <c r="C210" t="s">
         <v>256</v>
       </c>
-      <c r="D210" t="s">
-        <v>259</v>
+      <c r="D210">
+        <v>2</v>
       </c>
       <c r="E210">
         <v>0.25</v>
@@ -8502,8 +8473,8 @@
       <c r="G210">
         <v>80</v>
       </c>
-      <c r="H210" t="s">
-        <v>261</v>
+      <c r="H210">
+        <v>0</v>
       </c>
       <c r="I210">
         <v>12</v>
@@ -8525,8 +8496,8 @@
       <c r="C211" t="s">
         <v>256</v>
       </c>
-      <c r="D211" t="s">
-        <v>259</v>
+      <c r="D211">
+        <v>2</v>
       </c>
       <c r="E211">
         <v>0.75</v>
@@ -8537,8 +8508,8 @@
       <c r="G211">
         <v>90</v>
       </c>
-      <c r="H211" t="s">
-        <v>261</v>
+      <c r="H211">
+        <v>0</v>
       </c>
       <c r="I211">
         <v>18</v>
@@ -8560,8 +8531,8 @@
       <c r="C212" t="s">
         <v>256</v>
       </c>
-      <c r="D212" t="s">
-        <v>259</v>
+      <c r="D212">
+        <v>2</v>
       </c>
       <c r="E212">
         <v>0</v>
@@ -8572,8 +8543,8 @@
       <c r="G212">
         <v>65</v>
       </c>
-      <c r="H212" t="s">
-        <v>261</v>
+      <c r="H212">
+        <v>0</v>
       </c>
       <c r="I212">
         <v>19</v>
@@ -8595,8 +8566,8 @@
       <c r="C213" t="s">
         <v>256</v>
       </c>
-      <c r="D213" t="s">
-        <v>259</v>
+      <c r="D213">
+        <v>2</v>
       </c>
       <c r="E213">
         <v>1.75</v>
@@ -8607,8 +8578,8 @@
       <c r="G213">
         <v>155</v>
       </c>
-      <c r="H213" t="s">
-        <v>261</v>
+      <c r="H213">
+        <v>0</v>
       </c>
       <c r="I213">
         <v>15</v>
@@ -8630,8 +8601,8 @@
       <c r="C214" t="s">
         <v>256</v>
       </c>
-      <c r="D214" t="s">
-        <v>259</v>
+      <c r="D214">
+        <v>2</v>
       </c>
       <c r="E214">
         <v>1.5</v>
@@ -8642,8 +8613,8 @@
       <c r="G214">
         <v>160</v>
       </c>
-      <c r="H214" t="s">
-        <v>262</v>
+      <c r="H214">
+        <v>1</v>
       </c>
       <c r="I214">
         <v>17</v>
@@ -8665,8 +8636,8 @@
       <c r="C215" t="s">
         <v>255</v>
       </c>
-      <c r="D215" t="s">
-        <v>259</v>
+      <c r="D215">
+        <v>2</v>
       </c>
       <c r="E215">
         <v>1.25</v>
@@ -8677,8 +8648,8 @@
       <c r="G215">
         <v>85</v>
       </c>
-      <c r="H215" t="s">
-        <v>261</v>
+      <c r="H215">
+        <v>0</v>
       </c>
       <c r="I215">
         <v>20</v>
@@ -8700,8 +8671,8 @@
       <c r="C216" t="s">
         <v>256</v>
       </c>
-      <c r="D216" t="s">
-        <v>259</v>
+      <c r="D216">
+        <v>2</v>
       </c>
       <c r="E216">
         <v>-0.25</v>
@@ -8712,8 +8683,8 @@
       <c r="G216">
         <v>100</v>
       </c>
-      <c r="H216" t="s">
-        <v>261</v>
+      <c r="H216">
+        <v>0</v>
       </c>
       <c r="I216">
         <v>11</v>
@@ -8735,8 +8706,8 @@
       <c r="C217" t="s">
         <v>255</v>
       </c>
-      <c r="D217" t="s">
-        <v>259</v>
+      <c r="D217">
+        <v>2</v>
       </c>
       <c r="E217">
         <v>2</v>
@@ -8747,8 +8718,8 @@
       <c r="G217">
         <v>70</v>
       </c>
-      <c r="H217" t="s">
-        <v>261</v>
+      <c r="H217">
+        <v>0</v>
       </c>
       <c r="I217">
         <v>21.3</v>
@@ -8770,8 +8741,8 @@
       <c r="C218" t="s">
         <v>255</v>
       </c>
-      <c r="D218" t="s">
-        <v>257</v>
+      <c r="D218">
+        <v>1</v>
       </c>
       <c r="E218">
         <v>1.5</v>
@@ -8782,8 +8753,8 @@
       <c r="G218">
         <v>120</v>
       </c>
-      <c r="H218" t="s">
-        <v>261</v>
+      <c r="H218">
+        <v>0</v>
       </c>
       <c r="I218">
         <v>13</v>
@@ -8805,8 +8776,8 @@
       <c r="C219" t="s">
         <v>255</v>
       </c>
-      <c r="D219" t="s">
-        <v>258</v>
+      <c r="D219">
+        <v>0</v>
       </c>
       <c r="E219">
         <v>1.25</v>
@@ -8817,8 +8788,8 @@
       <c r="G219">
         <v>100</v>
       </c>
-      <c r="H219" t="s">
-        <v>261</v>
+      <c r="H219">
+        <v>0</v>
       </c>
       <c r="I219">
         <v>19</v>
@@ -8840,8 +8811,8 @@
       <c r="C220" t="s">
         <v>256</v>
       </c>
-      <c r="D220" t="s">
-        <v>259</v>
+      <c r="D220">
+        <v>2</v>
       </c>
       <c r="E220">
         <v>-2.5</v>
@@ -8852,8 +8823,8 @@
       <c r="G220">
         <v>62</v>
       </c>
-      <c r="H220" t="s">
-        <v>261</v>
+      <c r="H220">
+        <v>0</v>
       </c>
       <c r="I220">
         <v>17</v>
@@ -8875,8 +8846,8 @@
       <c r="C221" t="s">
         <v>256</v>
       </c>
-      <c r="D221" t="s">
-        <v>259</v>
+      <c r="D221">
+        <v>2</v>
       </c>
       <c r="E221">
         <v>0.75</v>
@@ -8887,8 +8858,8 @@
       <c r="G221">
         <v>122</v>
       </c>
-      <c r="H221" t="s">
-        <v>261</v>
+      <c r="H221">
+        <v>0</v>
       </c>
       <c r="I221">
         <v>12</v>
@@ -8910,8 +8881,8 @@
       <c r="C222" t="s">
         <v>256</v>
       </c>
-      <c r="D222" t="s">
-        <v>259</v>
+      <c r="D222">
+        <v>2</v>
       </c>
       <c r="E222">
         <v>3.25</v>
@@ -8922,8 +8893,8 @@
       <c r="G222">
         <v>150</v>
       </c>
-      <c r="H222" t="s">
-        <v>261</v>
+      <c r="H222">
+        <v>0</v>
       </c>
       <c r="I222">
         <v>15</v>
@@ -8945,8 +8916,8 @@
       <c r="C223" t="s">
         <v>256</v>
       </c>
-      <c r="D223" t="s">
-        <v>259</v>
+      <c r="D223">
+        <v>2</v>
       </c>
       <c r="E223">
         <v>4.25</v>
@@ -8957,8 +8928,8 @@
       <c r="G223">
         <v>95</v>
       </c>
-      <c r="H223" t="s">
-        <v>261</v>
+      <c r="H223">
+        <v>0</v>
       </c>
       <c r="I223">
         <v>10</v>
@@ -8980,8 +8951,8 @@
       <c r="C224" t="s">
         <v>256</v>
       </c>
-      <c r="D224" t="s">
-        <v>259</v>
+      <c r="D224">
+        <v>2</v>
       </c>
       <c r="E224">
         <v>1</v>
@@ -8992,8 +8963,8 @@
       <c r="G224">
         <v>93</v>
       </c>
-      <c r="H224" t="s">
-        <v>261</v>
+      <c r="H224">
+        <v>0</v>
       </c>
       <c r="I224">
         <v>14</v>
@@ -9015,8 +8986,8 @@
       <c r="C225" t="s">
         <v>255</v>
       </c>
-      <c r="D225" t="s">
-        <v>259</v>
+      <c r="D225">
+        <v>2</v>
       </c>
       <c r="E225">
         <v>-1.25</v>
@@ -9027,8 +8998,8 @@
       <c r="G225">
         <v>80</v>
       </c>
-      <c r="H225" t="s">
-        <v>261</v>
+      <c r="H225">
+        <v>0</v>
       </c>
       <c r="I225">
         <v>13</v>
@@ -9050,8 +9021,8 @@
       <c r="C226" t="s">
         <v>255</v>
       </c>
-      <c r="D226" t="s">
-        <v>259</v>
+      <c r="D226">
+        <v>2</v>
       </c>
       <c r="E226">
         <v>1.5</v>
@@ -9062,8 +9033,8 @@
       <c r="G226">
         <v>30</v>
       </c>
-      <c r="H226" t="s">
-        <v>260</v>
+      <c r="H226">
+        <v>1</v>
       </c>
       <c r="I226">
         <v>17</v>
@@ -9085,8 +9056,8 @@
       <c r="C227" t="s">
         <v>256</v>
       </c>
-      <c r="D227" t="s">
-        <v>259</v>
+      <c r="D227">
+        <v>2</v>
       </c>
       <c r="E227">
         <v>0.75</v>
@@ -9097,8 +9068,8 @@
       <c r="G227">
         <v>175</v>
       </c>
-      <c r="H227" t="s">
-        <v>260</v>
+      <c r="H227">
+        <v>1</v>
       </c>
       <c r="I227">
         <v>13</v>
@@ -9120,8 +9091,8 @@
       <c r="C228" t="s">
         <v>255</v>
       </c>
-      <c r="D228" t="s">
-        <v>259</v>
+      <c r="D228">
+        <v>2</v>
       </c>
       <c r="E228">
         <v>-0.5</v>
@@ -9132,8 +9103,8 @@
       <c r="G228">
         <v>65</v>
       </c>
-      <c r="H228" t="s">
-        <v>260</v>
+      <c r="H228">
+        <v>1</v>
       </c>
       <c r="I228">
         <v>14</v>
@@ -9155,8 +9126,8 @@
       <c r="C229" t="s">
         <v>256</v>
       </c>
-      <c r="D229" t="s">
-        <v>259</v>
+      <c r="D229">
+        <v>2</v>
       </c>
       <c r="E229">
         <v>4.25</v>
@@ -9167,8 +9138,8 @@
       <c r="G229">
         <v>105</v>
       </c>
-      <c r="H229" t="s">
-        <v>260</v>
+      <c r="H229">
+        <v>1</v>
       </c>
       <c r="I229">
         <v>16</v>
@@ -9190,8 +9161,8 @@
       <c r="C230" t="s">
         <v>255</v>
       </c>
-      <c r="D230" t="s">
-        <v>257</v>
+      <c r="D230">
+        <v>1</v>
       </c>
       <c r="E230">
         <v>0.75</v>
@@ -9202,8 +9173,8 @@
       <c r="G230">
         <v>170</v>
       </c>
-      <c r="H230" t="s">
-        <v>262</v>
+      <c r="H230">
+        <v>1</v>
       </c>
       <c r="I230">
         <v>24</v>
@@ -9225,8 +9196,8 @@
       <c r="C231" t="s">
         <v>256</v>
       </c>
-      <c r="D231" t="s">
-        <v>259</v>
+      <c r="D231">
+        <v>2</v>
       </c>
       <c r="E231">
         <v>-1.5</v>
@@ -9237,8 +9208,8 @@
       <c r="G231">
         <v>130</v>
       </c>
-      <c r="H231" t="s">
-        <v>260</v>
+      <c r="H231">
+        <v>1</v>
       </c>
       <c r="I231">
         <v>15</v>
@@ -9260,8 +9231,8 @@
       <c r="C232" t="s">
         <v>255</v>
       </c>
-      <c r="D232" t="s">
-        <v>259</v>
+      <c r="D232">
+        <v>2</v>
       </c>
       <c r="E232">
         <v>-1.25</v>
@@ -9272,8 +9243,8 @@
       <c r="G232">
         <v>146</v>
       </c>
-      <c r="H232" t="s">
-        <v>260</v>
+      <c r="H232">
+        <v>1</v>
       </c>
       <c r="I232">
         <v>20</v>
@@ -9295,8 +9266,8 @@
       <c r="C233" t="s">
         <v>255</v>
       </c>
-      <c r="D233" t="s">
-        <v>259</v>
+      <c r="D233">
+        <v>2</v>
       </c>
       <c r="E233">
         <v>-2.5</v>
@@ -9307,8 +9278,8 @@
       <c r="G233">
         <v>35</v>
       </c>
-      <c r="H233" t="s">
-        <v>260</v>
+      <c r="H233">
+        <v>1</v>
       </c>
       <c r="I233">
         <v>11</v>
@@ -9330,8 +9301,8 @@
       <c r="C234" t="s">
         <v>255</v>
       </c>
-      <c r="D234" t="s">
-        <v>259</v>
+      <c r="D234">
+        <v>2</v>
       </c>
       <c r="E234">
         <v>3.5</v>
@@ -9342,8 +9313,8 @@
       <c r="G234">
         <v>80</v>
       </c>
-      <c r="H234" t="s">
-        <v>260</v>
+      <c r="H234">
+        <v>1</v>
       </c>
       <c r="I234">
         <v>13</v>
@@ -9365,8 +9336,8 @@
       <c r="C235" t="s">
         <v>255</v>
       </c>
-      <c r="D235" t="s">
-        <v>259</v>
+      <c r="D235">
+        <v>2</v>
       </c>
       <c r="E235">
         <v>1</v>
@@ -9377,8 +9348,8 @@
       <c r="G235">
         <v>97</v>
       </c>
-      <c r="H235" t="s">
-        <v>261</v>
+      <c r="H235">
+        <v>0</v>
       </c>
       <c r="I235">
         <v>22</v>
@@ -9400,8 +9371,8 @@
       <c r="C236" t="s">
         <v>255</v>
       </c>
-      <c r="D236" t="s">
-        <v>259</v>
+      <c r="D236">
+        <v>2</v>
       </c>
       <c r="E236">
         <v>0.5</v>
@@ -9412,8 +9383,8 @@
       <c r="G236">
         <v>133</v>
       </c>
-      <c r="H236" t="s">
-        <v>260</v>
+      <c r="H236">
+        <v>1</v>
       </c>
       <c r="I236">
         <v>13</v>
@@ -9435,8 +9406,8 @@
       <c r="C237" t="s">
         <v>256</v>
       </c>
-      <c r="D237" t="s">
-        <v>259</v>
+      <c r="D237">
+        <v>2</v>
       </c>
       <c r="E237">
         <v>1.5</v>
@@ -9447,8 +9418,8 @@
       <c r="G237">
         <v>85</v>
       </c>
-      <c r="H237" t="s">
-        <v>260</v>
+      <c r="H237">
+        <v>1</v>
       </c>
       <c r="I237">
         <v>12</v>
@@ -9470,8 +9441,8 @@
       <c r="C238" t="s">
         <v>256</v>
       </c>
-      <c r="D238" t="s">
-        <v>259</v>
+      <c r="D238">
+        <v>2</v>
       </c>
       <c r="E238">
         <v>3</v>
@@ -9482,8 +9453,8 @@
       <c r="G238">
         <v>91</v>
       </c>
-      <c r="H238" t="s">
-        <v>260</v>
+      <c r="H238">
+        <v>1</v>
       </c>
       <c r="I238">
         <v>18</v>
@@ -9505,8 +9476,8 @@
       <c r="C239" t="s">
         <v>255</v>
       </c>
-      <c r="D239" t="s">
-        <v>259</v>
+      <c r="D239">
+        <v>2</v>
       </c>
       <c r="E239">
         <v>0.75</v>
@@ -9517,8 +9488,8 @@
       <c r="G239">
         <v>86</v>
       </c>
-      <c r="H239" t="s">
-        <v>260</v>
+      <c r="H239">
+        <v>1</v>
       </c>
       <c r="I239">
         <v>17</v>
@@ -9540,8 +9511,8 @@
       <c r="C240" t="s">
         <v>256</v>
       </c>
-      <c r="D240" t="s">
-        <v>259</v>
+      <c r="D240">
+        <v>2</v>
       </c>
       <c r="E240">
         <v>0.75</v>
@@ -9552,8 +9523,8 @@
       <c r="G240">
         <v>93</v>
       </c>
-      <c r="H240" t="s">
-        <v>261</v>
+      <c r="H240">
+        <v>0</v>
       </c>
       <c r="I240">
         <v>13</v>
@@ -9575,8 +9546,8 @@
       <c r="C241" t="s">
         <v>255</v>
       </c>
-      <c r="D241" t="s">
-        <v>259</v>
+      <c r="D241">
+        <v>2</v>
       </c>
       <c r="E241">
         <v>0.75</v>
@@ -9587,8 +9558,8 @@
       <c r="G241">
         <v>93</v>
       </c>
-      <c r="H241" t="s">
-        <v>261</v>
+      <c r="H241">
+        <v>0</v>
       </c>
       <c r="I241">
         <v>10</v>
@@ -9610,8 +9581,8 @@
       <c r="C242" t="s">
         <v>256</v>
       </c>
-      <c r="D242" t="s">
-        <v>259</v>
+      <c r="D242">
+        <v>2</v>
       </c>
       <c r="E242">
         <v>0.25</v>
@@ -9622,8 +9593,8 @@
       <c r="G242">
         <v>160</v>
       </c>
-      <c r="H242" t="s">
-        <v>261</v>
+      <c r="H242">
+        <v>0</v>
       </c>
       <c r="I242">
         <v>19</v>
@@ -9645,8 +9616,8 @@
       <c r="C243" t="s">
         <v>255</v>
       </c>
-      <c r="D243" t="s">
-        <v>259</v>
+      <c r="D243">
+        <v>2</v>
       </c>
       <c r="E243">
         <v>1.5</v>
@@ -9657,8 +9628,8 @@
       <c r="G243">
         <v>76</v>
       </c>
-      <c r="H243" t="s">
-        <v>260</v>
+      <c r="H243">
+        <v>1</v>
       </c>
       <c r="I243">
         <v>14</v>
@@ -9680,8 +9651,8 @@
       <c r="C244" t="s">
         <v>256</v>
       </c>
-      <c r="D244" t="s">
-        <v>259</v>
+      <c r="D244">
+        <v>2</v>
       </c>
       <c r="E244">
         <v>1.25</v>
@@ -9692,8 +9663,8 @@
       <c r="G244">
         <v>79</v>
       </c>
-      <c r="H244" t="s">
-        <v>260</v>
+      <c r="H244">
+        <v>1</v>
       </c>
       <c r="I244">
         <v>9</v>
@@ -9715,8 +9686,8 @@
       <c r="C245" t="s">
         <v>256</v>
       </c>
-      <c r="D245" t="s">
-        <v>259</v>
+      <c r="D245">
+        <v>2</v>
       </c>
       <c r="E245">
         <v>-0.75</v>
@@ -9727,8 +9698,8 @@
       <c r="G245">
         <v>110</v>
       </c>
-      <c r="H245" t="s">
-        <v>260</v>
+      <c r="H245">
+        <v>1</v>
       </c>
       <c r="I245">
         <v>14</v>
